--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game127\Desktop\ゲーム素材\3年次\卒業制作\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game121\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -3139,180 +3139,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3358,46 +3184,16 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3415,12 +3211,216 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="46">
     <dxf>
       <font>
         <b/>
@@ -3432,32 +3432,8 @@
       <font>
         <b/>
         <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3501,8 +3477,32 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3838,55 +3838,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -15393,13 +15344,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.600000000000001" thickBot="1"/>
+    <row r="1" spans="2:2" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:2" ht="30" customHeight="1" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>10</v>
@@ -15436,7 +15387,7 @@
       </c>
     </row>
     <row r="9" spans="2:2" ht="30" customHeight="1">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="111" t="s">
         <v>229</v>
       </c>
     </row>
@@ -15470,7 +15421,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
@@ -15540,28 +15491,28 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="11" width="15.69921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" style="2" customWidth="1"/>
-    <col min="13" max="47" width="15.69921875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="15.69921875" style="3" customWidth="1"/>
-    <col min="49" max="68" width="15.69921875" style="1" customWidth="1"/>
-    <col min="69" max="69" width="15.69921875" style="4" customWidth="1"/>
-    <col min="70" max="102" width="15.69921875" style="1" customWidth="1"/>
-    <col min="103" max="103" width="15.69921875" style="15" customWidth="1"/>
-    <col min="104" max="104" width="15.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="11" width="15.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="2" customWidth="1"/>
+    <col min="13" max="47" width="15.75" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15.75" style="3" customWidth="1"/>
+    <col min="49" max="68" width="15.75" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.75" style="4" customWidth="1"/>
+    <col min="70" max="102" width="15.75" style="1" customWidth="1"/>
+    <col min="103" max="103" width="15.75" style="15" customWidth="1"/>
+    <col min="104" max="104" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:104" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:104" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:104" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:104" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:104" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:104" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:104">
       <c r="B4" s="16"/>
       <c r="C4" s="24">
@@ -15871,7 +15822,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="5" spans="2:104" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="2:104" ht="19.5" thickBot="1">
       <c r="B5" s="17"/>
       <c r="C5" s="25" t="str">
         <f t="shared" ref="C5:BN5" si="0">TEXT(C4,"(aaa)")</f>
@@ -17079,32 +17030,32 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
-    <col min="3" max="3" width="26.296875" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
-    <col min="6" max="6" width="35.19921875" customWidth="1"/>
-    <col min="9" max="12" width="15.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="35.25" customWidth="1"/>
+    <col min="9" max="12" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:12" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:12" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:12" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:12" ht="18" customHeight="1">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="90"/>
-      <c r="F4" s="119"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="42"/>
@@ -17112,12 +17063,12 @@
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
+    <row r="5" spans="2:12" ht="19.5" thickBot="1">
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="90"/>
-      <c r="F5" s="120"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="45"/>
@@ -17138,7 +17089,7 @@
       <c r="K6" s="46"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="2:12" ht="19.5" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -17151,20 +17102,20 @@
       <c r="K7" s="46"/>
       <c r="L7" s="47"/>
     </row>
-    <row r="8" spans="2:12" ht="28.2" customHeight="1" thickBot="1">
-      <c r="B8" s="171" t="s">
+    <row r="8" spans="2:12" ht="28.15" customHeight="1" thickBot="1">
+      <c r="B8" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="171" t="s">
+      <c r="E8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="119" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="38"/>
@@ -17176,9 +17127,9 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="100" t="s">
         <v>215</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -17187,7 +17138,7 @@
       <c r="E9" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="103" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="38"/>
@@ -17199,7 +17150,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>216</v>
@@ -17210,7 +17161,7 @@
       <c r="E10" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="161" t="s">
+      <c r="F10" s="103" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="38"/>
@@ -17220,7 +17171,7 @@
       <c r="K10" s="46"/>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="11" spans="2:12" ht="19.5" thickBot="1">
       <c r="B11" s="86" t="s">
         <v>2</v>
       </c>
@@ -17233,7 +17184,7 @@
       <c r="E11" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="161" t="s">
+      <c r="F11" s="103" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="38"/>
@@ -17256,19 +17207,19 @@
       <c r="E12" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="161" t="s">
+      <c r="F12" s="103" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="101"/>
+      <c r="K12" s="133"/>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="13" spans="2:12" ht="19.5" thickBot="1">
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
@@ -17281,14 +17232,14 @@
       <c r="E13" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="162" t="s">
+      <c r="F13" s="104" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12">
@@ -17304,7 +17255,7 @@
       <c r="E14" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="162" t="s">
+      <c r="F14" s="104" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="38"/>
@@ -17327,7 +17278,7 @@
       <c r="E15" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="162"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="45"/>
@@ -17340,7 +17291,7 @@
       <c r="C16" s="39"/>
       <c r="D16" s="72"/>
       <c r="E16" s="86"/>
-      <c r="F16" s="162"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="45"/>
@@ -17353,7 +17304,7 @@
       <c r="C17" s="39"/>
       <c r="D17" s="72"/>
       <c r="E17" s="98"/>
-      <c r="F17" s="162"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="45"/>
@@ -17361,12 +17312,12 @@
       <c r="K17" s="46"/>
       <c r="L17" s="47"/>
     </row>
-    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="18" spans="2:12" ht="19.5" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="73"/>
       <c r="E18" s="97"/>
-      <c r="F18" s="163"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="45"/>
@@ -17426,7 +17377,7 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="23" spans="2:12" ht="19.5" thickBot="1">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -17448,13 +17399,13 @@
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="45"/>
-      <c r="J24" s="100" t="s">
+      <c r="J24" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="101"/>
+      <c r="K24" s="133"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="25" spans="2:12" ht="19.5" thickBot="1">
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -17463,8 +17414,8 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="103"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
       <c r="L25" s="49"/>
     </row>
   </sheetData>
@@ -17545,47 +17496,47 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="20.296875" customWidth="1"/>
-    <col min="8" max="8" width="10.69921875" customWidth="1"/>
-    <col min="9" max="10" width="20.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="10" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:10" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1"/>
-    <row r="4" spans="2:10" ht="28.2">
-      <c r="B4" s="113" t="s">
+    <row r="3" spans="2:10" ht="19.5" thickBot="1"/>
+    <row r="4" spans="2:10" ht="28.5">
+      <c r="B4" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="152"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
       <c r="H4" s="88"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="121"/>
-    </row>
-    <row r="5" spans="2:10" ht="28.8" thickBot="1">
-      <c r="B5" s="153"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="141"/>
+    </row>
+    <row r="5" spans="2:10" ht="29.25" thickBot="1">
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="88"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.600000000000001" thickBot="1">
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.5" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="50"/>
       <c r="D6" s="38"/>
@@ -17597,53 +17548,53 @@
       <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="138" t="s">
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="150"/>
       <c r="H7" s="85"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="2:10" ht="18.600000000000001" thickBot="1">
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="141"/>
+    <row r="8" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="151"/>
       <c r="H8" s="85"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="2:10" ht="31.05" customHeight="1" thickBot="1">
-      <c r="B9" s="171" t="s">
+    <row r="9" spans="2:10" ht="31.15" customHeight="1" thickBot="1">
+      <c r="B9" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="172" t="s">
+      <c r="C9" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="177" t="s">
+      <c r="D9" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="178"/>
-      <c r="F9" s="177" t="s">
+      <c r="E9" s="153"/>
+      <c r="F9" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="179"/>
-      <c r="H9" s="171" t="s">
+      <c r="G9" s="154"/>
+      <c r="H9" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="180" t="s">
+      <c r="I9" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="174"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="89" t="s">
@@ -17652,19 +17603,19 @@
       <c r="C10" s="51">
         <v>0</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149" t="s">
+      <c r="E10" s="158"/>
+      <c r="F10" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="150"/>
+      <c r="G10" s="160"/>
       <c r="H10" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="146"/>
-      <c r="J10" s="112"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="86" t="s">
@@ -17673,21 +17624,21 @@
       <c r="C11" s="51">
         <v>1</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="128" t="s">
+      <c r="E11" s="164"/>
+      <c r="F11" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="166"/>
       <c r="H11" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="112"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="86" t="s">
@@ -17696,21 +17647,21 @@
       <c r="C12" s="51">
         <v>2</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123" t="s">
+      <c r="E12" s="164"/>
+      <c r="F12" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="142"/>
+      <c r="G12" s="168"/>
       <c r="H12" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="146" t="s">
+      <c r="I12" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="112"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="86" t="s">
@@ -17719,19 +17670,19 @@
       <c r="C13" s="51">
         <v>3</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123" t="s">
+      <c r="E13" s="164"/>
+      <c r="F13" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="142"/>
+      <c r="G13" s="168"/>
       <c r="H13" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="146"/>
-      <c r="J13" s="112"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="86" t="s">
@@ -17740,19 +17691,19 @@
       <c r="C14" s="52">
         <v>4</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="123" t="s">
+      <c r="E14" s="164"/>
+      <c r="F14" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="142"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="143"/>
-      <c r="J14" s="106"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="170"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="86" t="s">
@@ -17761,44 +17712,44 @@
       <c r="C15" s="52">
         <v>5</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123" t="s">
+      <c r="E15" s="164"/>
+      <c r="F15" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="142"/>
+      <c r="G15" s="168"/>
       <c r="H15" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="143" t="s">
+      <c r="I15" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="106"/>
-    </row>
-    <row r="16" spans="2:10" ht="18.600000000000001" thickBot="1">
+      <c r="J15" s="170"/>
+    </row>
+    <row r="16" spans="2:10" ht="19.5" thickBot="1">
       <c r="B16" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="53">
         <v>6</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126" t="s">
+      <c r="E16" s="174"/>
+      <c r="F16" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="144"/>
+      <c r="G16" s="176"/>
       <c r="H16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="145" t="s">
+      <c r="I16" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="109"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="38"/>
@@ -17811,7 +17762,7 @@
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
     </row>
-    <row r="18" spans="2:10" ht="18.600000000000001" thickBot="1">
+    <row r="18" spans="2:10" ht="19.5" thickBot="1">
       <c r="B18" s="38"/>
       <c r="C18" s="50"/>
       <c r="D18" s="38"/>
@@ -17823,53 +17774,53 @@
       <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="138" t="s">
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="85"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
     </row>
-    <row r="20" spans="2:10" ht="18.600000000000001" thickBot="1">
-      <c r="B20" s="135"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="141"/>
+    <row r="20" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B20" s="145"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="151"/>
       <c r="H20" s="85"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
     </row>
-    <row r="21" spans="2:10" ht="31.05" customHeight="1" thickBot="1">
-      <c r="B21" s="181" t="s">
+    <row r="21" spans="2:10" ht="31.15" customHeight="1" thickBot="1">
+      <c r="B21" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="182" t="s">
+      <c r="C21" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="183" t="s">
+      <c r="D21" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="184"/>
-      <c r="F21" s="183" t="s">
+      <c r="E21" s="180"/>
+      <c r="F21" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="184"/>
-      <c r="H21" s="181" t="s">
+      <c r="G21" s="180"/>
+      <c r="H21" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="185" t="s">
+      <c r="I21" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="186"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="89" t="s">
@@ -17878,19 +17829,19 @@
       <c r="C22" s="51">
         <v>0</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="149" t="s">
+      <c r="E22" s="182"/>
+      <c r="F22" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="157"/>
+      <c r="G22" s="183"/>
       <c r="H22" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="162"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="86" t="s">
@@ -17899,21 +17850,21 @@
       <c r="C23" s="51">
         <v>1</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="128" t="s">
+      <c r="E23" s="164"/>
+      <c r="F23" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="129"/>
+      <c r="G23" s="185"/>
       <c r="H23" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="111" t="s">
+      <c r="I23" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="112"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="86" t="s">
@@ -17922,21 +17873,21 @@
       <c r="C24" s="51">
         <v>2</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123" t="s">
+      <c r="E24" s="164"/>
+      <c r="F24" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="124"/>
+      <c r="G24" s="186"/>
       <c r="H24" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="111" t="s">
+      <c r="I24" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="112"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="86" t="s">
@@ -17945,19 +17896,19 @@
       <c r="C25" s="51">
         <v>3</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123" t="s">
+      <c r="E25" s="164"/>
+      <c r="F25" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="124"/>
+      <c r="G25" s="186"/>
       <c r="H25" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="162"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="86" t="s">
@@ -17966,19 +17917,19 @@
       <c r="C26" s="52">
         <v>4</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123" t="s">
+      <c r="E26" s="164"/>
+      <c r="F26" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="124"/>
+      <c r="G26" s="186"/>
       <c r="H26" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="106"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="170"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="86" t="s">
@@ -17987,44 +17938,44 @@
       <c r="C27" s="52">
         <v>5</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="123" t="s">
+      <c r="E27" s="164"/>
+      <c r="F27" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="124"/>
+      <c r="G27" s="186"/>
       <c r="H27" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="105" t="s">
+      <c r="I27" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="106"/>
-    </row>
-    <row r="28" spans="2:10" ht="18.600000000000001" thickBot="1">
+      <c r="J27" s="170"/>
+    </row>
+    <row r="28" spans="2:10" ht="19.5" thickBot="1">
       <c r="B28" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="53">
         <v>6</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="125"/>
-      <c r="F28" s="126" t="s">
+      <c r="E28" s="174"/>
+      <c r="F28" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="127"/>
+      <c r="G28" s="188"/>
       <c r="H28" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="108" t="s">
+      <c r="I28" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="109"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="38"/>
@@ -18037,7 +17988,7 @@
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
     </row>
-    <row r="30" spans="2:10" ht="18.600000000000001" thickBot="1">
+    <row r="30" spans="2:10" ht="19.5" thickBot="1">
       <c r="B30" s="38"/>
       <c r="C30" s="50"/>
       <c r="D30" s="38"/>
@@ -18049,53 +18000,53 @@
       <c r="J30" s="38"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="138" t="s">
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="140"/>
+      <c r="G31" s="150"/>
       <c r="H31" s="85"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
     </row>
-    <row r="32" spans="2:10" ht="18.600000000000001" thickBot="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="141"/>
+    <row r="32" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="85"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
     </row>
-    <row r="33" spans="2:10" ht="31.05" customHeight="1" thickBot="1">
-      <c r="B33" s="171" t="s">
+    <row r="33" spans="2:10" ht="31.15" customHeight="1" thickBot="1">
+      <c r="B33" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="172" t="s">
+      <c r="C33" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="178"/>
-      <c r="F33" s="177" t="s">
+      <c r="E33" s="153"/>
+      <c r="F33" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="178"/>
-      <c r="H33" s="171" t="s">
+      <c r="G33" s="153"/>
+      <c r="H33" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="I33" s="173" t="s">
+      <c r="I33" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="174"/>
+      <c r="J33" s="156"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="89" t="s">
@@ -18104,21 +18055,21 @@
       <c r="C34" s="51">
         <v>0</v>
       </c>
-      <c r="D34" s="130" t="s">
+      <c r="D34" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="131"/>
-      <c r="F34" s="149" t="s">
+      <c r="E34" s="182"/>
+      <c r="F34" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="157"/>
+      <c r="G34" s="183"/>
       <c r="H34" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="111" t="s">
+      <c r="I34" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="112"/>
+      <c r="J34" s="162"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="86" t="s">
@@ -18127,21 +18078,21 @@
       <c r="C35" s="51">
         <v>1</v>
       </c>
-      <c r="D35" s="104" t="s">
+      <c r="D35" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="122"/>
-      <c r="F35" s="128" t="s">
+      <c r="E35" s="164"/>
+      <c r="F35" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="129"/>
+      <c r="G35" s="185"/>
       <c r="H35" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="111" t="s">
+      <c r="I35" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="112"/>
+      <c r="J35" s="162"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="86" t="s">
@@ -18150,21 +18101,21 @@
       <c r="C36" s="51">
         <v>2</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="D36" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="122"/>
-      <c r="F36" s="123" t="s">
+      <c r="E36" s="164"/>
+      <c r="F36" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="124"/>
+      <c r="G36" s="186"/>
       <c r="H36" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="111" t="s">
+      <c r="I36" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="112"/>
+      <c r="J36" s="162"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="86" t="s">
@@ -18173,19 +18124,19 @@
       <c r="C37" s="51">
         <v>3</v>
       </c>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="122"/>
-      <c r="F37" s="123" t="s">
+      <c r="E37" s="164"/>
+      <c r="F37" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="124"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="111"/>
-      <c r="J37" s="112"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="162"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="86" t="s">
@@ -18194,19 +18145,19 @@
       <c r="C38" s="52">
         <v>4</v>
       </c>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="123" t="s">
+      <c r="E38" s="164"/>
+      <c r="F38" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="124"/>
+      <c r="G38" s="186"/>
       <c r="H38" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="105"/>
-      <c r="J38" s="106"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="170"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="86" t="s">
@@ -18215,71 +18166,95 @@
       <c r="C39" s="52">
         <v>5</v>
       </c>
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="122"/>
-      <c r="F39" s="123" t="s">
+      <c r="E39" s="164"/>
+      <c r="F39" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="124"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="105" t="s">
+      <c r="I39" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="106"/>
-    </row>
-    <row r="40" spans="2:10" ht="18.600000000000001" thickBot="1">
+      <c r="J39" s="170"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.5" thickBot="1">
       <c r="B40" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="53">
         <v>6</v>
       </c>
-      <c r="D40" s="107" t="s">
+      <c r="D40" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="125"/>
-      <c r="F40" s="126" t="s">
+      <c r="E40" s="174"/>
+      <c r="F40" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="127"/>
+      <c r="G40" s="188"/>
       <c r="H40" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="108" t="s">
+      <c r="I40" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="109"/>
+      <c r="J40" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -18292,54 +18267,30 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B10:B16">
@@ -18455,37 +18406,37 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" customWidth="1"/>
-    <col min="6" max="6" width="26.09765625" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:6" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:6" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" customHeight="1">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="90"/>
-      <c r="F4" s="119"/>
-    </row>
-    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
+      <c r="F4" s="130"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="90"/>
-      <c r="F5" s="120"/>
+      <c r="F5" s="131"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="38"/>
@@ -18494,27 +18445,27 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="2:6" ht="19.5" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="2:6" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B8" s="171" t="s">
+    <row r="8" spans="2:6" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B8" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="171" t="s">
+      <c r="E8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="119" t="s">
         <v>19</v>
       </c>
     </row>
@@ -18531,7 +18482,7 @@
       <c r="E9" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="161"/>
+      <c r="F9" s="103"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="86" t="s">
@@ -18546,7 +18497,7 @@
       <c r="E10" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="162"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="86" t="s">
@@ -18561,7 +18512,7 @@
       <c r="E11" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="162"/>
+      <c r="F11" s="104"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="86" t="s">
@@ -18576,7 +18527,7 @@
       <c r="E12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="86" t="s">
@@ -18591,7 +18542,7 @@
       <c r="E13" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="162" t="s">
+      <c r="F13" s="104" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18608,7 +18559,7 @@
       <c r="E14" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="162" t="s">
+      <c r="F14" s="104" t="s">
         <v>72</v>
       </c>
     </row>
@@ -18625,7 +18576,7 @@
       <c r="E15" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="162" t="s">
+      <c r="F15" s="104" t="s">
         <v>74</v>
       </c>
     </row>
@@ -18634,42 +18585,42 @@
       <c r="C16" s="76"/>
       <c r="D16" s="79"/>
       <c r="E16" s="86"/>
-      <c r="F16" s="162"/>
+      <c r="F16" s="104"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="56"/>
       <c r="C17" s="76"/>
       <c r="D17" s="79"/>
       <c r="E17" s="86"/>
-      <c r="F17" s="162"/>
+      <c r="F17" s="104"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="55"/>
       <c r="C18" s="76"/>
       <c r="D18" s="79"/>
       <c r="E18" s="86"/>
-      <c r="F18" s="162"/>
+      <c r="F18" s="104"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="54"/>
       <c r="C19" s="82"/>
       <c r="D19" s="79"/>
       <c r="E19" s="86"/>
-      <c r="F19" s="162"/>
+      <c r="F19" s="104"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="57"/>
       <c r="C20" s="82"/>
       <c r="D20" s="79"/>
       <c r="E20" s="86"/>
-      <c r="F20" s="162"/>
-    </row>
-    <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="F20" s="104"/>
+    </row>
+    <row r="21" spans="2:6" ht="19.5" thickBot="1">
       <c r="B21" s="58"/>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
       <c r="E21" s="87"/>
-      <c r="F21" s="163"/>
+      <c r="F21" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18740,38 +18691,38 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="22.8984375" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:6" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:6" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" customHeight="1">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="90"/>
-      <c r="F4" s="119"/>
-    </row>
-    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
+      <c r="F4" s="130"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="90"/>
-      <c r="F5" s="120"/>
+      <c r="F5" s="131"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="38"/>
@@ -18780,27 +18731,27 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="2:6" ht="19.5" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="2:6" ht="29.4" customHeight="1" thickBot="1">
-      <c r="B8" s="171" t="s">
+    <row r="8" spans="2:6" ht="29.45" customHeight="1" thickBot="1">
+      <c r="B8" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="171" t="s">
+      <c r="E8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="119" t="s">
         <v>19</v>
       </c>
     </row>
@@ -18817,7 +18768,7 @@
       <c r="E9" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="161"/>
+      <c r="F9" s="103"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="86" t="s">
@@ -18832,7 +18783,7 @@
       <c r="E10" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="162"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="86" t="s">
@@ -18847,7 +18798,7 @@
       <c r="E11" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="162"/>
+      <c r="F11" s="104"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="86" t="s">
@@ -18862,7 +18813,7 @@
       <c r="E12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="86" t="s">
@@ -18877,7 +18828,7 @@
       <c r="E13" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="162"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="86" t="s">
@@ -18892,7 +18843,7 @@
       <c r="E14" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="162"/>
+      <c r="F14" s="104"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="86" t="s">
@@ -18907,7 +18858,7 @@
       <c r="E15" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="162"/>
+      <c r="F15" s="104"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="86" t="s">
@@ -18922,7 +18873,7 @@
       <c r="E16" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="162"/>
+      <c r="F16" s="104"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="86" t="s">
@@ -18937,7 +18888,7 @@
       <c r="E17" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="162"/>
+      <c r="F17" s="104"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="86" t="s">
@@ -18952,7 +18903,7 @@
       <c r="E18" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="162"/>
+      <c r="F18" s="104"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="86" t="s">
@@ -18967,7 +18918,7 @@
       <c r="E19" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="162"/>
+      <c r="F19" s="104"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="86" t="s">
@@ -18982,7 +18933,7 @@
       <c r="E20" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="162"/>
+      <c r="F20" s="104"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="86" t="s">
@@ -18997,7 +18948,7 @@
       <c r="E21" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="164"/>
+      <c r="F21" s="106"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="86" t="s">
@@ -19012,7 +18963,7 @@
       <c r="E22" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="162"/>
+      <c r="F22" s="104"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="86" t="s">
@@ -19027,7 +18978,7 @@
       <c r="E23" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="162"/>
+      <c r="F23" s="104"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="86" t="s">
@@ -19042,7 +18993,7 @@
       <c r="E24" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="162"/>
+      <c r="F24" s="104"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="86" t="s">
@@ -19057,7 +19008,7 @@
       <c r="E25" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="162"/>
+      <c r="F25" s="104"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="86" t="s">
@@ -19072,7 +19023,7 @@
       <c r="E26" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="164"/>
+      <c r="F26" s="106"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="86" t="s">
@@ -19087,7 +19038,7 @@
       <c r="E27" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="162"/>
+      <c r="F27" s="104"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="86" t="s">
@@ -19102,7 +19053,7 @@
       <c r="E28" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="162"/>
+      <c r="F28" s="104"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="86" t="s">
@@ -19117,7 +19068,7 @@
       <c r="E29" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="162"/>
+      <c r="F29" s="104"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="86" t="s">
@@ -19132,7 +19083,7 @@
       <c r="E30" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="164"/>
+      <c r="F30" s="106"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="86" t="s">
@@ -19147,7 +19098,7 @@
       <c r="E31" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="164"/>
+      <c r="F31" s="106"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="86" t="s">
@@ -19162,7 +19113,7 @@
       <c r="E32" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="162"/>
+      <c r="F32" s="104"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="86" t="s">
@@ -19177,28 +19128,28 @@
       <c r="E33" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="164"/>
+      <c r="F33" s="106"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="86"/>
       <c r="C34" s="68"/>
       <c r="D34" s="96"/>
       <c r="E34" s="86"/>
-      <c r="F34" s="162"/>
+      <c r="F34" s="104"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="86"/>
       <c r="C35" s="68"/>
       <c r="D35" s="79"/>
       <c r="E35" s="86"/>
-      <c r="F35" s="162"/>
-    </row>
-    <row r="36" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="F35" s="104"/>
+    </row>
+    <row r="36" spans="2:6" ht="19.5" thickBot="1">
       <c r="B36" s="87"/>
       <c r="C36" s="69"/>
       <c r="D36" s="81"/>
       <c r="E36" s="87"/>
-      <c r="F36" s="163"/>
+      <c r="F36" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19269,43 +19220,43 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
-    <col min="8" max="8" width="47.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:8" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:8" ht="18" customHeight="1">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
       <c r="G4" s="90"/>
-      <c r="H4" s="119"/>
-    </row>
-    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="H4" s="130"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
       <c r="G5" s="90"/>
-      <c r="H5" s="120"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="38"/>
@@ -19316,7 +19267,7 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="2:8" ht="19.5" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -19325,26 +19276,26 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="2:8" ht="28.2" customHeight="1" thickBot="1">
-      <c r="B8" s="171" t="s">
+    <row r="8" spans="2:8" ht="28.15" customHeight="1" thickBot="1">
+      <c r="B8" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="171" t="s">
+      <c r="E8" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="189" t="s">
+      <c r="F8" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="171" t="s">
+      <c r="G8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="187" t="s">
+      <c r="H8" s="119" t="s">
         <v>19</v>
       </c>
     </row>
@@ -19367,7 +19318,7 @@
       <c r="G9" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="103" t="s">
         <v>104</v>
       </c>
     </row>
@@ -19381,7 +19332,7 @@
       <c r="D10" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="107" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="65" t="s">
@@ -19390,7 +19341,7 @@
       <c r="G10" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="161" t="s">
+      <c r="H10" s="103" t="s">
         <v>107</v>
       </c>
     </row>
@@ -19404,7 +19355,7 @@
       <c r="D11" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="107" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="65" t="s">
@@ -19413,7 +19364,7 @@
       <c r="G11" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="161" t="s">
+      <c r="H11" s="103" t="s">
         <v>109</v>
       </c>
     </row>
@@ -19427,7 +19378,7 @@
       <c r="D12" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="165" t="s">
+      <c r="E12" s="107" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="65" t="s">
@@ -19436,7 +19387,7 @@
       <c r="G12" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="161" t="s">
+      <c r="H12" s="103" t="s">
         <v>111</v>
       </c>
     </row>
@@ -19450,7 +19401,7 @@
       <c r="D13" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="166" t="s">
+      <c r="E13" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="65" t="s">
@@ -19459,7 +19410,7 @@
       <c r="G13" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="162" t="s">
+      <c r="H13" s="104" t="s">
         <v>113</v>
       </c>
     </row>
@@ -19473,7 +19424,7 @@
       <c r="D14" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="166" t="s">
+      <c r="E14" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="65" t="s">
@@ -19482,7 +19433,7 @@
       <c r="G14" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="162" t="s">
+      <c r="H14" s="104" t="s">
         <v>115</v>
       </c>
     </row>
@@ -19496,7 +19447,7 @@
       <c r="D15" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="166" t="s">
+      <c r="E15" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="65" t="s">
@@ -19505,7 +19456,7 @@
       <c r="G15" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="162" t="s">
+      <c r="H15" s="104" t="s">
         <v>117</v>
       </c>
     </row>
@@ -19519,7 +19470,7 @@
       <c r="D16" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="166" t="s">
+      <c r="E16" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="65" t="s">
@@ -19528,7 +19479,7 @@
       <c r="G16" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="162" t="s">
+      <c r="H16" s="104" t="s">
         <v>119</v>
       </c>
     </row>
@@ -19542,7 +19493,7 @@
       <c r="D17" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="166" t="s">
+      <c r="E17" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="65" t="s">
@@ -19551,7 +19502,7 @@
       <c r="G17" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="162" t="s">
+      <c r="H17" s="104" t="s">
         <v>115</v>
       </c>
     </row>
@@ -19565,7 +19516,7 @@
       <c r="D18" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="166" t="s">
+      <c r="E18" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="65" t="s">
@@ -19574,7 +19525,7 @@
       <c r="G18" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="162" t="s">
+      <c r="H18" s="104" t="s">
         <v>187</v>
       </c>
     </row>
@@ -19588,7 +19539,7 @@
       <c r="D19" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="166" t="s">
+      <c r="E19" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="65" t="s">
@@ -19597,7 +19548,7 @@
       <c r="G19" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="162" t="s">
+      <c r="H19" s="104" t="s">
         <v>123</v>
       </c>
     </row>
@@ -19611,7 +19562,7 @@
       <c r="D20" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="166" t="s">
+      <c r="E20" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="65" t="s">
@@ -19620,7 +19571,7 @@
       <c r="G20" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="162" t="s">
+      <c r="H20" s="104" t="s">
         <v>125</v>
       </c>
     </row>
@@ -19634,7 +19585,7 @@
       <c r="D21" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="65" t="s">
@@ -19643,7 +19594,7 @@
       <c r="G21" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="162" t="s">
+      <c r="H21" s="104" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19657,7 +19608,7 @@
       <c r="D22" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="166" t="s">
+      <c r="E22" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="65" t="s">
@@ -19666,7 +19617,7 @@
       <c r="G22" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="162" t="s">
+      <c r="H22" s="104" t="s">
         <v>129</v>
       </c>
     </row>
@@ -19680,7 +19631,7 @@
       <c r="D23" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="166" t="s">
+      <c r="E23" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="65" t="s">
@@ -19689,7 +19640,7 @@
       <c r="G23" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="162" t="s">
+      <c r="H23" s="104" t="s">
         <v>193</v>
       </c>
     </row>
@@ -19703,7 +19654,7 @@
       <c r="D24" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="166" t="s">
+      <c r="E24" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="65" t="s">
@@ -19712,7 +19663,7 @@
       <c r="G24" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="162" t="s">
+      <c r="H24" s="104" t="s">
         <v>131</v>
       </c>
     </row>
@@ -19726,7 +19677,7 @@
       <c r="D25" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="166" t="s">
+      <c r="E25" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="65" t="s">
@@ -19735,7 +19686,7 @@
       <c r="G25" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="162" t="s">
+      <c r="H25" s="104" t="s">
         <v>133</v>
       </c>
     </row>
@@ -19749,7 +19700,7 @@
       <c r="D26" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="166" t="s">
+      <c r="E26" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="65" t="s">
@@ -19758,7 +19709,7 @@
       <c r="G26" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="162" t="s">
+      <c r="H26" s="104" t="s">
         <v>135</v>
       </c>
     </row>
@@ -19772,7 +19723,7 @@
       <c r="D27" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="166" t="s">
+      <c r="E27" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="65" t="s">
@@ -19781,7 +19732,7 @@
       <c r="G27" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="162" t="s">
+      <c r="H27" s="104" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19795,7 +19746,7 @@
       <c r="D28" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="166" t="s">
+      <c r="E28" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="65" t="s">
@@ -19804,7 +19755,7 @@
       <c r="G28" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="162" t="s">
+      <c r="H28" s="104" t="s">
         <v>138</v>
       </c>
     </row>
@@ -19818,7 +19769,7 @@
       <c r="D29" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="166" t="s">
+      <c r="E29" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="65" t="s">
@@ -19827,7 +19778,7 @@
       <c r="G29" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="162" t="s">
+      <c r="H29" s="104" t="s">
         <v>138</v>
       </c>
     </row>
@@ -19841,7 +19792,7 @@
       <c r="D30" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="166" t="s">
+      <c r="E30" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="65" t="s">
@@ -19850,7 +19801,7 @@
       <c r="G30" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="162" t="s">
+      <c r="H30" s="104" t="s">
         <v>141</v>
       </c>
     </row>
@@ -19864,7 +19815,7 @@
       <c r="D31" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="166" t="s">
+      <c r="E31" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="65" t="s">
@@ -19873,7 +19824,7 @@
       <c r="G31" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="162" t="s">
+      <c r="H31" s="104" t="s">
         <v>144</v>
       </c>
     </row>
@@ -19887,7 +19838,7 @@
       <c r="D32" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="166" t="s">
+      <c r="E32" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="65" t="s">
@@ -19896,7 +19847,7 @@
       <c r="G32" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="162" t="s">
+      <c r="H32" s="104" t="s">
         <v>147</v>
       </c>
     </row>
@@ -19904,73 +19855,73 @@
       <c r="B33" s="59"/>
       <c r="C33" s="68"/>
       <c r="D33" s="84"/>
-      <c r="E33" s="167"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="66"/>
       <c r="G33" s="86"/>
-      <c r="H33" s="162"/>
+      <c r="H33" s="104"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="60"/>
       <c r="C34" s="68"/>
       <c r="D34" s="84"/>
-      <c r="E34" s="167"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="66"/>
       <c r="G34" s="86"/>
-      <c r="H34" s="162"/>
+      <c r="H34" s="104"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="61"/>
       <c r="C35" s="68"/>
       <c r="D35" s="84"/>
-      <c r="E35" s="167"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="66"/>
       <c r="G35" s="86"/>
-      <c r="H35" s="162"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="60"/>
       <c r="C36" s="68"/>
       <c r="D36" s="84"/>
-      <c r="E36" s="167"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="66"/>
       <c r="G36" s="86"/>
-      <c r="H36" s="162"/>
+      <c r="H36" s="104"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="61"/>
       <c r="C37" s="68"/>
       <c r="D37" s="84"/>
-      <c r="E37" s="167"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="66"/>
       <c r="G37" s="86"/>
-      <c r="H37" s="162"/>
+      <c r="H37" s="104"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="62"/>
       <c r="C38" s="68"/>
       <c r="D38" s="84"/>
-      <c r="E38" s="167"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="66"/>
       <c r="G38" s="86"/>
-      <c r="H38" s="162"/>
+      <c r="H38" s="104"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="63"/>
       <c r="C39" s="68"/>
       <c r="D39" s="84"/>
-      <c r="E39" s="167"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="66"/>
       <c r="G39" s="86"/>
-      <c r="H39" s="162"/>
-    </row>
-    <row r="40" spans="2:8" ht="18.600000000000001" thickBot="1">
+      <c r="H39" s="104"/>
+    </row>
+    <row r="40" spans="2:8" ht="19.5" thickBot="1">
       <c r="B40" s="64"/>
       <c r="C40" s="69"/>
       <c r="D40" s="83"/>
-      <c r="E40" s="168"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="67"/>
       <c r="G40" s="87"/>
-      <c r="H40" s="163"/>
+      <c r="H40" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20052,53 +20003,53 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:5" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:5" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:5" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:5" ht="18" customHeight="1">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="115"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="90"/>
-      <c r="E4" s="119"/>
-    </row>
-    <row r="5" spans="2:5" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
+      <c r="E4" s="130"/>
+    </row>
+    <row r="5" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B5" s="127"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="90"/>
-      <c r="E5" s="120"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="E5" s="131"/>
+    </row>
+    <row r="6" spans="2:5" ht="19.5" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="2:5" ht="25.8" customHeight="1" thickBot="1">
-      <c r="B7" s="170" t="s">
+    <row r="7" spans="2:5" ht="25.9" customHeight="1" thickBot="1">
+      <c r="B7" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="170" t="s">
+      <c r="D7" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="176" t="s">
+      <c r="E7" s="116" t="s">
         <v>19</v>
       </c>
     </row>
@@ -20106,49 +20057,49 @@
       <c r="B8" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C8" s="122" t="s">
         <v>223</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="161"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="123" t="s">
         <v>224</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="162"/>
+      <c r="E9" s="104"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="123" t="s">
         <v>225</v>
       </c>
       <c r="D10" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="162"/>
+      <c r="E10" s="104"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="123" t="s">
         <v>226</v>
       </c>
       <c r="D11" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="162"/>
+      <c r="E11" s="104"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="86" t="s">
@@ -20160,7 +20111,7 @@
       <c r="D12" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="162"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="86" t="s">
@@ -20172,7 +20123,7 @@
       <c r="D13" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="162"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="86" t="s">
@@ -20184,127 +20135,127 @@
       <c r="D14" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="162"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="191" t="s">
+      <c r="C15" s="123" t="s">
         <v>230</v>
       </c>
       <c r="D15" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="162"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="191" t="s">
+      <c r="C16" s="123" t="s">
         <v>231</v>
       </c>
       <c r="D16" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="162"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="123" t="s">
         <v>232</v>
       </c>
       <c r="D17" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="162"/>
+      <c r="E17" s="104"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="191" t="s">
+      <c r="C18" s="123" t="s">
         <v>233</v>
       </c>
       <c r="D18" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="162"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="191" t="s">
+      <c r="C19" s="123" t="s">
         <v>234</v>
       </c>
       <c r="D19" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="162"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="123" t="s">
         <v>235</v>
       </c>
       <c r="D20" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="162"/>
+      <c r="E20" s="104"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="123" t="s">
         <v>236</v>
       </c>
       <c r="D21" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="162"/>
+      <c r="E21" s="104"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="191" t="s">
+      <c r="C22" s="123" t="s">
         <v>237</v>
       </c>
       <c r="D22" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="162"/>
+      <c r="E22" s="104"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="55"/>
       <c r="C23" s="76"/>
       <c r="D23" s="86"/>
-      <c r="E23" s="162"/>
+      <c r="E23" s="104"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="54"/>
       <c r="C24" s="82"/>
       <c r="D24" s="86"/>
-      <c r="E24" s="162"/>
+      <c r="E24" s="104"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="57"/>
       <c r="C25" s="82"/>
       <c r="D25" s="86"/>
-      <c r="E25" s="162"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="E25" s="104"/>
+    </row>
+    <row r="26" spans="2:5" ht="19.5" thickBot="1">
       <c r="B26" s="58"/>
       <c r="C26" s="80"/>
       <c r="D26" s="87"/>
-      <c r="E26" s="163"/>
+      <c r="E26" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20324,24 +20275,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20425,30 +20376,30 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:17" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="18.600000000000001" thickBot="1"/>
-    <row r="5" spans="2:17" ht="43.8" customHeight="1" thickBot="1">
-      <c r="B5" s="159" t="s">
+    <row r="4" spans="2:17" ht="19.5" thickBot="1"/>
+    <row r="5" spans="2:17" ht="43.9" customHeight="1" thickBot="1">
+      <c r="B5" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="102" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="18.600000000000001" thickBot="1"/>
-    <row r="11" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="2:17" ht="19.5" thickBot="1"/>
+    <row r="11" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -20466,7 +20417,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
     </row>
-    <row r="12" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -20484,7 +20435,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -20494,7 +20445,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="2:17" ht="79.95" customHeight="1" thickTop="1">
+    <row r="14" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -20504,7 +20455,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
     </row>
-    <row r="15" spans="2:17" ht="79.95" customHeight="1">
+    <row r="15" spans="2:17" ht="79.900000000000006" customHeight="1">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -3247,22 +3247,76 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3295,10 +3349,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3307,109 +3385,31 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15342,7 +15342,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -17026,8 +17028,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -17196,7 +17198,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>218</v>
@@ -17221,7 +17223,7 @@
     </row>
     <row r="13" spans="2:12" ht="19.5" thickBot="1">
       <c r="B13" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>219</v>
@@ -17244,7 +17246,7 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>220</v>
@@ -17516,22 +17518,22 @@
       <c r="B4" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="137"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
       <c r="H4" s="88"/>
       <c r="I4" s="130"/>
-      <c r="J4" s="141"/>
+      <c r="J4" s="190"/>
     </row>
     <row r="5" spans="2:10" ht="29.25" thickBot="1">
-      <c r="B5" s="138"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="140"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="189"/>
       <c r="H5" s="88"/>
       <c r="I5" s="131"/>
       <c r="J5" s="131"/>
@@ -17548,27 +17550,27 @@
       <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="148" t="s">
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="150"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="85"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="151"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="169"/>
       <c r="H8" s="85"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -17587,14 +17589,14 @@
       <c r="F9" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="154"/>
+      <c r="G9" s="180"/>
       <c r="H9" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="155" t="s">
+      <c r="I9" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="156"/>
+      <c r="J9" s="155"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="89" t="s">
@@ -17603,19 +17605,19 @@
       <c r="C10" s="51">
         <v>0</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159" t="s">
+      <c r="E10" s="183"/>
+      <c r="F10" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="160"/>
+      <c r="G10" s="184"/>
       <c r="H10" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="86" t="s">
@@ -17624,21 +17626,21 @@
       <c r="C11" s="51">
         <v>1</v>
       </c>
-      <c r="D11" s="163" t="s">
+      <c r="D11" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="165" t="s">
+      <c r="E11" s="137"/>
+      <c r="F11" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="166"/>
+      <c r="G11" s="179"/>
       <c r="H11" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="161" t="s">
+      <c r="I11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="162"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="86" t="s">
@@ -17647,21 +17649,21 @@
       <c r="C12" s="51">
         <v>2</v>
       </c>
-      <c r="D12" s="163" t="s">
+      <c r="D12" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="167" t="s">
+      <c r="E12" s="137"/>
+      <c r="F12" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="168"/>
+      <c r="G12" s="172"/>
       <c r="H12" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="161" t="s">
+      <c r="I12" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="162"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="86" t="s">
@@ -17670,19 +17672,19 @@
       <c r="C13" s="51">
         <v>3</v>
       </c>
-      <c r="D13" s="163" t="s">
+      <c r="D13" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="167" t="s">
+      <c r="E13" s="137"/>
+      <c r="F13" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="168"/>
+      <c r="G13" s="172"/>
       <c r="H13" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="161"/>
-      <c r="J13" s="162"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="86" t="s">
@@ -17691,19 +17693,19 @@
       <c r="C14" s="52">
         <v>4</v>
       </c>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="167" t="s">
+      <c r="E14" s="137"/>
+      <c r="F14" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="168"/>
+      <c r="G14" s="172"/>
       <c r="H14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="169"/>
-      <c r="J14" s="170"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="141"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="86" t="s">
@@ -17712,21 +17714,21 @@
       <c r="C15" s="52">
         <v>5</v>
       </c>
-      <c r="D15" s="163" t="s">
+      <c r="D15" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="167" t="s">
+      <c r="E15" s="137"/>
+      <c r="F15" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="168"/>
+      <c r="G15" s="172"/>
       <c r="H15" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="169" t="s">
+      <c r="I15" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="170"/>
+      <c r="J15" s="141"/>
     </row>
     <row r="16" spans="2:10" ht="19.5" thickBot="1">
       <c r="B16" s="87" t="s">
@@ -17735,21 +17737,21 @@
       <c r="C16" s="53">
         <v>6</v>
       </c>
-      <c r="D16" s="173" t="s">
+      <c r="D16" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175" t="s">
+      <c r="E16" s="143"/>
+      <c r="F16" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="176"/>
+      <c r="G16" s="174"/>
       <c r="H16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="177" t="s">
+      <c r="I16" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="178"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="38"/>
@@ -17774,27 +17776,27 @@
       <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="148" t="s">
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="150"/>
+      <c r="G19" s="168"/>
       <c r="H19" s="85"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="151"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="169"/>
       <c r="H20" s="85"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
@@ -17806,21 +17808,21 @@
       <c r="C21" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="179" t="s">
+      <c r="D21" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="180"/>
-      <c r="F21" s="179" t="s">
+      <c r="E21" s="177"/>
+      <c r="F21" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="180"/>
+      <c r="G21" s="177"/>
       <c r="H21" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="171" t="s">
+      <c r="I21" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="172"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="89" t="s">
@@ -17829,19 +17831,19 @@
       <c r="C22" s="51">
         <v>0</v>
       </c>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="182"/>
-      <c r="F22" s="159" t="s">
+      <c r="E22" s="157"/>
+      <c r="F22" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="183"/>
+      <c r="G22" s="159"/>
       <c r="H22" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="184"/>
-      <c r="J22" s="162"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="149"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="86" t="s">
@@ -17850,21 +17852,21 @@
       <c r="C23" s="51">
         <v>1</v>
       </c>
-      <c r="D23" s="163" t="s">
+      <c r="D23" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="164"/>
-      <c r="F23" s="165" t="s">
+      <c r="E23" s="137"/>
+      <c r="F23" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="185"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="184" t="s">
+      <c r="I23" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="162"/>
+      <c r="J23" s="149"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="86" t="s">
@@ -17873,21 +17875,21 @@
       <c r="C24" s="51">
         <v>2</v>
       </c>
-      <c r="D24" s="163" t="s">
+      <c r="D24" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="164"/>
-      <c r="F24" s="167" t="s">
+      <c r="E24" s="137"/>
+      <c r="F24" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="186"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="184" t="s">
+      <c r="I24" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="162"/>
+      <c r="J24" s="149"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="86" t="s">
@@ -17896,19 +17898,19 @@
       <c r="C25" s="51">
         <v>3</v>
       </c>
-      <c r="D25" s="163" t="s">
+      <c r="D25" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="164"/>
-      <c r="F25" s="167" t="s">
+      <c r="E25" s="137"/>
+      <c r="F25" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="186"/>
+      <c r="G25" s="139"/>
       <c r="H25" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="184"/>
-      <c r="J25" s="162"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="149"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="86" t="s">
@@ -17917,19 +17919,19 @@
       <c r="C26" s="52">
         <v>4</v>
       </c>
-      <c r="D26" s="163" t="s">
+      <c r="D26" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="164"/>
-      <c r="F26" s="167" t="s">
+      <c r="E26" s="137"/>
+      <c r="F26" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="186"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="187"/>
-      <c r="J26" s="170"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="86" t="s">
@@ -17938,21 +17940,21 @@
       <c r="C27" s="52">
         <v>5</v>
       </c>
-      <c r="D27" s="163" t="s">
+      <c r="D27" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="164"/>
-      <c r="F27" s="167" t="s">
+      <c r="E27" s="137"/>
+      <c r="F27" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="186"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="187" t="s">
+      <c r="I27" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="170"/>
+      <c r="J27" s="141"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1">
       <c r="B28" s="87" t="s">
@@ -17961,21 +17963,21 @@
       <c r="C28" s="53">
         <v>6</v>
       </c>
-      <c r="D28" s="173" t="s">
+      <c r="D28" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175" t="s">
+      <c r="E28" s="143"/>
+      <c r="F28" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="188"/>
+      <c r="G28" s="145"/>
       <c r="H28" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="189" t="s">
+      <c r="I28" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="178"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="38"/>
@@ -18000,27 +18002,27 @@
       <c r="J30" s="38"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="148" t="s">
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="150"/>
+      <c r="G31" s="168"/>
       <c r="H31" s="85"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
     </row>
     <row r="32" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="169"/>
       <c r="H32" s="85"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
@@ -18043,10 +18045,10 @@
       <c r="H33" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="I33" s="190" t="s">
+      <c r="I33" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="156"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="89" t="s">
@@ -18055,21 +18057,21 @@
       <c r="C34" s="51">
         <v>0</v>
       </c>
-      <c r="D34" s="181" t="s">
+      <c r="D34" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="182"/>
-      <c r="F34" s="159" t="s">
+      <c r="E34" s="157"/>
+      <c r="F34" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="183"/>
+      <c r="G34" s="159"/>
       <c r="H34" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="184" t="s">
+      <c r="I34" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="162"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="86" t="s">
@@ -18078,21 +18080,21 @@
       <c r="C35" s="51">
         <v>1</v>
       </c>
-      <c r="D35" s="163" t="s">
+      <c r="D35" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="164"/>
-      <c r="F35" s="165" t="s">
+      <c r="E35" s="137"/>
+      <c r="F35" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="185"/>
+      <c r="G35" s="151"/>
       <c r="H35" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="184" t="s">
+      <c r="I35" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="162"/>
+      <c r="J35" s="149"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="86" t="s">
@@ -18101,21 +18103,21 @@
       <c r="C36" s="51">
         <v>2</v>
       </c>
-      <c r="D36" s="163" t="s">
+      <c r="D36" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="164"/>
-      <c r="F36" s="167" t="s">
+      <c r="E36" s="137"/>
+      <c r="F36" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="186"/>
+      <c r="G36" s="139"/>
       <c r="H36" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="184" t="s">
+      <c r="I36" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="162"/>
+      <c r="J36" s="149"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="86" t="s">
@@ -18124,19 +18126,19 @@
       <c r="C37" s="51">
         <v>3</v>
       </c>
-      <c r="D37" s="163" t="s">
+      <c r="D37" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="164"/>
-      <c r="F37" s="167" t="s">
+      <c r="E37" s="137"/>
+      <c r="F37" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="139"/>
       <c r="H37" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="184"/>
-      <c r="J37" s="162"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="86" t="s">
@@ -18145,19 +18147,19 @@
       <c r="C38" s="52">
         <v>4</v>
       </c>
-      <c r="D38" s="163" t="s">
+      <c r="D38" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="164"/>
-      <c r="F38" s="167" t="s">
+      <c r="E38" s="137"/>
+      <c r="F38" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="186"/>
+      <c r="G38" s="139"/>
       <c r="H38" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="187"/>
-      <c r="J38" s="170"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="141"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="86" t="s">
@@ -18166,21 +18168,21 @@
       <c r="C39" s="52">
         <v>5</v>
       </c>
-      <c r="D39" s="163" t="s">
+      <c r="D39" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="167" t="s">
+      <c r="E39" s="137"/>
+      <c r="F39" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="186"/>
+      <c r="G39" s="139"/>
       <c r="H39" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="187" t="s">
+      <c r="I39" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="170"/>
+      <c r="J39" s="141"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1">
       <c r="B40" s="87" t="s">
@@ -18189,72 +18191,48 @@
       <c r="C40" s="53">
         <v>6</v>
       </c>
-      <c r="D40" s="173" t="s">
+      <c r="D40" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="174"/>
-      <c r="F40" s="175" t="s">
+      <c r="E40" s="143"/>
+      <c r="F40" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="188"/>
+      <c r="G40" s="145"/>
       <c r="H40" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="189" t="s">
+      <c r="I40" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="178"/>
+      <c r="J40" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -18267,30 +18245,54 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B10:B16">

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game121\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game127\Desktop\ゲーム素材\3年次\卒業制作\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="243">
   <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
@@ -154,7 +154,7 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>観客席</t>
@@ -314,7 +314,7 @@
   </si>
   <si>
     <t>ー</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>移動(ダッシュ)</t>
@@ -408,7 +408,7 @@
   </si>
   <si>
     <t>ー</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>体感もっさりした挙動。</t>
@@ -446,16 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特殊型</t>
-    <rPh sb="0" eb="2">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アクション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -520,19 +510,19 @@
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>セレクト</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>チュートリアル</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ゲーム</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>実装未定</t>
@@ -546,7 +536,7 @@
   </si>
   <si>
     <t>リザルト</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>勝者</t>
@@ -557,7 +547,7 @@
   </si>
   <si>
     <t>ランキング</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ランキング等、追加分</t>
@@ -591,15 +581,15 @@
     <rPh sb="2" eb="3">
       <t>オン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>キャンセル</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>セレクト</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>カウントダウン(開始時)</t>
@@ -609,11 +599,11 @@
     <rPh sb="10" eb="11">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ゲームスタート</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>タイムアナウンス</t>
@@ -627,14 +617,14 @@
     <rPh sb="10" eb="11">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ゲーム終了</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>リザルト、順位発表</t>
@@ -1479,11 +1469,11 @@
   </si>
   <si>
     <t>select000</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>tutorial000</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>game000</t>
@@ -1571,7 +1561,7 @@
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>パワー型の処理</t>
@@ -1581,7 +1571,7 @@
     <rPh sb="5" eb="7">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>地雷型の処理</t>
@@ -1778,6 +1768,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>地雷型</t>
+    <rPh sb="0" eb="2">
+      <t>ジライ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起き上がり</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
@@ -1786,7 +1800,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,13 +1882,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="18"/>
-      <color rgb="FF6FA8DC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="18"/>
       <color rgb="FF6FA8DC"/>
@@ -2034,7 +2041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2298,41 +2305,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2350,36 +2322,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2417,21 +2359,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2549,32 +2476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2584,58 +2485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2771,52 +2620,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2838,7 +2641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2959,34 +2762,34 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2995,145 +2798,145 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3142,10 +2945,10 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3157,262 +2960,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15342,17 +15049,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="19.5" thickBot="1"/>
+    <row r="1" spans="2:2" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:2" ht="30" customHeight="1" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>10</v>
@@ -15390,7 +15095,7 @@
     </row>
     <row r="9" spans="2:2" ht="30" customHeight="1">
       <c r="B9" s="111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="30" customHeight="1" thickBot="1">
@@ -15423,7 +15128,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
@@ -15471,7 +15176,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -15493,28 +15198,28 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="11" width="15.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="2" customWidth="1"/>
-    <col min="13" max="47" width="15.75" style="1" customWidth="1"/>
-    <col min="48" max="48" width="15.75" style="3" customWidth="1"/>
-    <col min="49" max="68" width="15.75" style="1" customWidth="1"/>
-    <col min="69" max="69" width="15.75" style="4" customWidth="1"/>
-    <col min="70" max="102" width="15.75" style="1" customWidth="1"/>
-    <col min="103" max="103" width="15.75" style="15" customWidth="1"/>
-    <col min="104" max="104" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="11" width="15.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" style="2" customWidth="1"/>
+    <col min="13" max="47" width="15.69921875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15.69921875" style="3" customWidth="1"/>
+    <col min="49" max="68" width="15.69921875" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.69921875" style="4" customWidth="1"/>
+    <col min="70" max="102" width="15.69921875" style="1" customWidth="1"/>
+    <col min="103" max="103" width="15.69921875" style="15" customWidth="1"/>
+    <col min="104" max="104" width="15.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:104" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:104" ht="19.5" thickBot="1">
+    <row r="1" spans="2:104" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:104" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:104" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:104" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:104">
       <c r="B4" s="16"/>
       <c r="C4" s="24">
@@ -15824,7 +15529,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="5" spans="2:104" ht="19.5" thickBot="1">
+    <row r="5" spans="2:104" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="17"/>
       <c r="C5" s="25" t="str">
         <f t="shared" ref="C5:BN5" si="0">TEXT(C4,"(aaa)")</f>
@@ -17032,32 +16737,32 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="35.25" customWidth="1"/>
-    <col min="9" max="12" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="3" max="3" width="26.296875" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="35.19921875" customWidth="1"/>
+    <col min="9" max="12" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:12" ht="19.5" thickBot="1">
+    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:12" ht="18" customHeight="1">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="90"/>
-      <c r="F4" s="130"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="42"/>
@@ -17065,12 +16770,12 @@
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" thickBot="1">
-      <c r="B5" s="127"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="90"/>
-      <c r="F5" s="131"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="45"/>
@@ -17091,7 +16796,7 @@
       <c r="K6" s="46"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" thickBot="1">
+    <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -17104,18 +16809,18 @@
       <c r="K7" s="46"/>
       <c r="L7" s="47"/>
     </row>
-    <row r="8" spans="2:12" ht="28.15" customHeight="1" thickBot="1">
+    <row r="8" spans="2:12" ht="28.2" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="119" t="s">
         <v>19</v>
@@ -17132,7 +16837,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>20</v>
@@ -17155,7 +16860,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>22</v>
@@ -17173,12 +16878,12 @@
       <c r="K10" s="46"/>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="2:12" ht="19.5" thickBot="1">
+    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B11" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>24</v>
@@ -17201,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="71" t="s">
         <v>26</v>
@@ -17215,18 +16920,18 @@
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="132" t="s">
+      <c r="J12" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="133"/>
+      <c r="K12" s="145"/>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="2:12" ht="19.5" thickBot="1">
+    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="86" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="72" t="s">
         <v>28</v>
@@ -17240,8 +16945,8 @@
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="135"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12">
@@ -17249,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="72" t="s">
         <v>30</v>
@@ -17272,10 +16977,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="72" t="s">
         <v>227</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>228</v>
       </c>
       <c r="E15" s="89" t="s">
         <v>7</v>
@@ -17314,7 +17019,7 @@
       <c r="K17" s="46"/>
       <c r="L17" s="47"/>
     </row>
-    <row r="18" spans="2:12" ht="19.5" thickBot="1">
+    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="73"/>
@@ -17379,7 +17084,7 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="2:12" ht="19.5" thickBot="1">
+    <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -17401,13 +17106,13 @@
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="45"/>
-      <c r="J24" s="132" t="s">
+      <c r="J24" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="133"/>
+      <c r="K24" s="145"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="2:12" ht="19.5" thickBot="1">
+    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -17416,14 +17121,13 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B4:D5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="J24:K25"/>
     <mergeCell ref="J12:K13"/>
   </mergeCells>
@@ -17492,810 +17196,678 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:J40"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="10" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="36.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1">
+    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="19.5" thickBot="1"/>
-    <row r="4" spans="2:10" ht="28.5">
-      <c r="B4" s="124" t="s">
+    <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="2:7" ht="28.2">
+      <c r="B4" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="190"/>
-    </row>
-    <row r="5" spans="2:10" ht="29.25" thickBot="1">
-      <c r="B5" s="187"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" thickBot="1">
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="135"/>
+    </row>
+    <row r="5" spans="2:7" ht="28.8" thickBot="1">
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="124"/>
+    </row>
+    <row r="6" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="50"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="160" t="s">
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="166" t="s">
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="2:10" ht="31.15" customHeight="1" thickBot="1">
+      <c r="F7" s="85"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="2:7" ht="31.05" customHeight="1" thickBot="1">
       <c r="B9" s="113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="152" t="s">
+      <c r="E9" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="181" t="s">
+      <c r="F9" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="155"/>
-    </row>
-    <row r="10" spans="2:10">
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="51">
         <v>0</v>
       </c>
-      <c r="D10" s="182" t="s">
+      <c r="D10" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="183"/>
-      <c r="F10" s="158" t="s">
+      <c r="E10" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="184"/>
-      <c r="H10" s="89" t="s">
+      <c r="F10" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="178"/>
-      <c r="J10" s="149"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="G10" s="103"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="51">
         <v>1</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="150" t="s">
+      <c r="E11" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="179"/>
-      <c r="H11" s="86" t="s">
+      <c r="F11" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="178" t="s">
+      <c r="G11" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="149"/>
-    </row>
-    <row r="12" spans="2:10">
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="51">
         <v>2</v>
       </c>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138" t="s">
+      <c r="E12" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="172"/>
-      <c r="H12" s="86" t="s">
+      <c r="F12" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="178" t="s">
+      <c r="G12" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="149"/>
-    </row>
-    <row r="13" spans="2:10">
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="51">
         <v>3</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138" t="s">
+      <c r="E13" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="172"/>
-      <c r="H13" s="86" t="s">
+      <c r="F13" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="178"/>
-      <c r="J13" s="149"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="G13" s="103"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="52">
         <v>4</v>
       </c>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138" t="s">
+      <c r="E14" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="172"/>
-      <c r="H14" s="86" t="s">
+      <c r="F14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="173"/>
-      <c r="J14" s="141"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="G14" s="104"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="52">
         <v>5</v>
       </c>
-      <c r="D15" s="136" t="s">
+      <c r="D15" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="104"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="52">
+        <v>6</v>
+      </c>
+      <c r="D16" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138" t="s">
+      <c r="E16" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="172"/>
-      <c r="H15" s="86" t="s">
+      <c r="F16" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="173" t="s">
+      <c r="G16" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B16" s="87" t="s">
+    </row>
+    <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B17" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C17" s="53">
+        <v>7</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="174"/>
-      <c r="H16" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="175" t="s">
+      <c r="G17" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="147"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="38"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="2:10" ht="19.5" thickBot="1">
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="38"/>
       <c r="C18" s="50"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="160" t="s">
+    </row>
+    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="166" t="s">
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="168"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="20" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="2:10" ht="31.15" customHeight="1" thickBot="1">
-      <c r="B21" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="118" t="s">
+      <c r="F20" s="85"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="2:7" ht="31.05" customHeight="1" thickBot="1">
+      <c r="B22" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="176" t="s">
+      <c r="D22" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="177"/>
-      <c r="F21" s="176" t="s">
+      <c r="E22" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="177"/>
-      <c r="H21" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="170" t="s">
+      <c r="F22" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="171"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="89" t="s">
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C23" s="51">
         <v>0</v>
       </c>
-      <c r="D22" s="156" t="s">
+      <c r="D23" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158" t="s">
+      <c r="E23" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="159"/>
-      <c r="H22" s="89" t="s">
+      <c r="F23" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="51">
-        <v>1</v>
-      </c>
-      <c r="D23" s="136" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="150" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="148" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="149"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="G23" s="103"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="51">
-        <v>2</v>
-      </c>
-      <c r="D24" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="139"/>
-      <c r="H24" s="86" t="s">
+      <c r="F24" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="148" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="149"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="G24" s="103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="51">
-        <v>3</v>
-      </c>
-      <c r="D25" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="139"/>
-      <c r="H25" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="149"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="G25" s="103" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="52">
-        <v>4</v>
-      </c>
-      <c r="D26" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138" t="s">
+      <c r="C26" s="51">
+        <v>3</v>
+      </c>
+      <c r="D26" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="139"/>
-      <c r="H26" s="86" t="s">
+      <c r="F26" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="140"/>
-      <c r="J26" s="141"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="G26" s="103"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="52">
+        <v>4</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="104"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="52">
         <v>5</v>
       </c>
-      <c r="D27" s="136" t="s">
+      <c r="D28" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="130" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="104"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="52">
+        <v>6</v>
+      </c>
+      <c r="D29" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138" t="s">
+      <c r="E29" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="139"/>
-      <c r="H27" s="86" t="s">
+      <c r="F29" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="140" t="s">
+      <c r="G29" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="141"/>
-    </row>
-    <row r="28" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B28" s="87" t="s">
+    </row>
+    <row r="30" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B30" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C30" s="53">
+        <v>7</v>
+      </c>
+      <c r="D30" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="143"/>
-      <c r="F28" s="144" t="s">
+      <c r="G30" s="105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="38"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B32" s="38"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="85"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="2:7" ht="31.05" customHeight="1" thickBot="1">
+      <c r="B35" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="51">
+        <v>0</v>
+      </c>
+      <c r="D36" s="134" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="145"/>
-      <c r="H28" s="87" t="s">
+      <c r="F36" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="147"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="38"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B30" s="38"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="160" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="166" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="168"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B32" s="163"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-    </row>
-    <row r="33" spans="2:10" ht="31.15" customHeight="1" thickBot="1">
-      <c r="B33" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="152" t="s">
+      <c r="G36" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="153"/>
-      <c r="F33" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="153"/>
-      <c r="H33" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" s="154" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="155"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="51">
-        <v>0</v>
-      </c>
-      <c r="D34" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="157"/>
-      <c r="F34" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="159"/>
-      <c r="H34" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="148" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="149"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="51">
-        <v>1</v>
-      </c>
-      <c r="D35" s="136" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="151"/>
-      <c r="H35" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="148" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="149"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="51">
-        <v>2</v>
-      </c>
-      <c r="D36" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="139"/>
-      <c r="H36" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="148" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="149"/>
-    </row>
-    <row r="37" spans="2:10">
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="51">
-        <v>3</v>
-      </c>
-      <c r="D37" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="139"/>
-      <c r="H37" s="86" t="s">
+      <c r="F37" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="148"/>
-      <c r="J37" s="149"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="G37" s="103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="52">
-        <v>4</v>
-      </c>
-      <c r="D38" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="138" t="s">
+      <c r="C38" s="51">
+        <v>2</v>
+      </c>
+      <c r="D38" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="139"/>
-      <c r="H38" s="86" t="s">
+      <c r="F38" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="140"/>
-      <c r="J38" s="141"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="G38" s="103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="51">
+        <v>3</v>
+      </c>
+      <c r="D39" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="103"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="52">
+        <v>4</v>
+      </c>
+      <c r="D40" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="104"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="52">
         <v>5</v>
       </c>
-      <c r="D39" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="138" t="s">
+      <c r="D41" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="139"/>
-      <c r="H39" s="86" t="s">
+      <c r="F41" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="140" t="s">
+      <c r="G41" s="104"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="52">
+        <v>6</v>
+      </c>
+      <c r="D42" s="128" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="141"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B40" s="87" t="s">
+    </row>
+    <row r="43" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B43" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C43" s="53">
+        <v>7</v>
+      </c>
+      <c r="D43" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="143"/>
-      <c r="F40" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="145"/>
-      <c r="H40" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="146" t="s">
+      <c r="G43" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="147"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
+  <mergeCells count="7">
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B10:B16">
+  <conditionalFormatting sqref="B10:B17">
     <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B10)))</formula>
     </cfRule>
@@ -18306,26 +17878,26 @@
       <formula>NOT(ISERROR(SEARCH("途中",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B28">
+  <conditionalFormatting sqref="B23:B30">
     <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("完了",B23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="待機">
-      <formula>NOT(ISERROR(SEARCH("待機",B22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("待機",B23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="途中">
-      <formula>NOT(ISERROR(SEARCH("途中",B22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("途中",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B40">
+  <conditionalFormatting sqref="B36:B43">
     <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("完了",B36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="待機">
-      <formula>NOT(ISERROR(SEARCH("待機",B34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("待機",B36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="途中">
-      <formula>NOT(ISERROR(SEARCH("途中",B34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("途中",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -18337,7 +17909,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{F6D55F90-43B9-43F1-8C90-4C3C9BAB08C5}">
-            <xm:f>NOT(ISERROR(SEARCH(概要!$C$5,H10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(概要!$C$5,F10)))</xm:f>
             <xm:f>概要!$C$5</xm:f>
             <x14:dxf>
               <font>
@@ -18347,11 +17919,11 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H10:H16</xm:sqref>
+          <xm:sqref>F10:F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{C38CBC31-C01C-4AD0-B322-1396E2CA2DA5}">
-            <xm:f>NOT(ISERROR(SEARCH(概要!$C$5,H22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(概要!$C$5,F23)))</xm:f>
             <xm:f>概要!$C$5</xm:f>
             <x14:dxf>
               <font>
@@ -18361,11 +17933,11 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H22:H28</xm:sqref>
+          <xm:sqref>F23:F30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{47D9987D-DCE6-433A-B97F-054AC05A7B5B}">
-            <xm:f>NOT(ISERROR(SEARCH(概要!$C$5,H34)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(概要!$C$5,F36)))</xm:f>
             <xm:f>概要!$C$5</xm:f>
             <x14:dxf>
               <font>
@@ -18375,7 +17947,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H34:H40</xm:sqref>
+          <xm:sqref>F36:F43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18385,13 +17957,13 @@
           <x14:formula1>
             <xm:f>Data!$D$3:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H10:H16 H22:H28 H34:H40</xm:sqref>
+          <xm:sqref>F10:F17 F23:F30 F36:F43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:B16 B22:B28 B34:B40</xm:sqref>
+          <xm:sqref>B10:B17 B23:B30 B36:B43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18405,40 +17977,40 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:6" ht="19.5" thickBot="1">
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" customHeight="1">
-      <c r="B4" s="191" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
+      <c r="B4" s="159" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="90"/>
-      <c r="F4" s="130"/>
-    </row>
-    <row r="5" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B5" s="127"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="F4" s="135"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="90"/>
-      <c r="F5" s="131"/>
+      <c r="F5" s="124"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="38"/>
@@ -18447,25 +18019,25 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="19.5" thickBot="1">
+    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="2:6" ht="28.9" customHeight="1" thickBot="1">
+    <row r="8" spans="2:6" ht="28.8" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="120" t="s">
-        <v>65</v>
-      </c>
       <c r="E8" s="113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="119" t="s">
         <v>19</v>
@@ -18476,10 +18048,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="89" t="s">
         <v>9</v>
@@ -18491,10 +18063,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>9</v>
@@ -18506,10 +18078,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>9</v>
@@ -18521,10 +18093,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>9</v>
@@ -18536,16 +18108,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -18553,16 +18125,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -18570,16 +18142,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -18617,7 +18189,7 @@
       <c r="E20" s="86"/>
       <c r="F20" s="104"/>
     </row>
-    <row r="21" spans="2:6" ht="19.5" thickBot="1">
+    <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B21" s="58"/>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
@@ -18625,9 +18197,8 @@
       <c r="F21" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B4:D5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:B16">
@@ -18690,41 +18261,41 @@
   <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:6" ht="19.5" thickBot="1">
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" customHeight="1">
-      <c r="B4" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
+      <c r="B4" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="90"/>
-      <c r="F4" s="130"/>
-    </row>
-    <row r="5" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B5" s="127"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="F4" s="135"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="90"/>
-      <c r="F5" s="131"/>
+      <c r="F5" s="124"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="38"/>
@@ -18733,25 +18304,25 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="19.5" thickBot="1">
+    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="2:6" ht="29.45" customHeight="1" thickBot="1">
+    <row r="8" spans="2:6" ht="29.4" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="119" t="s">
         <v>19</v>
@@ -18762,10 +18333,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="89" t="s">
         <v>9</v>
@@ -18777,10 +18348,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>9</v>
@@ -18792,10 +18363,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>9</v>
@@ -18807,10 +18378,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>9</v>
@@ -18822,10 +18393,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>9</v>
@@ -18837,10 +18408,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>9</v>
@@ -18852,10 +18423,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>9</v>
@@ -18867,10 +18438,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>9</v>
@@ -18882,10 +18453,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>9</v>
@@ -18897,10 +18468,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>9</v>
@@ -18912,10 +18483,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>9</v>
@@ -18927,10 +18498,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>9</v>
@@ -18942,10 +18513,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>9</v>
@@ -18957,7 +18528,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="95" t="s">
         <v>46</v>
@@ -18972,10 +18543,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>9</v>
@@ -18987,10 +18558,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>9</v>
@@ -19002,10 +18573,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="86" t="s">
         <v>9</v>
@@ -19017,10 +18588,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>9</v>
@@ -19032,10 +18603,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>9</v>
@@ -19047,10 +18618,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>9</v>
@@ -19062,10 +18633,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="86" t="s">
         <v>9</v>
@@ -19077,10 +18648,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="86" t="s">
         <v>9</v>
@@ -19092,10 +18663,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" s="94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>9</v>
@@ -19107,10 +18678,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="78" t="s">
         <v>176</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>177</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>9</v>
@@ -19122,10 +18693,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>9</v>
@@ -19146,7 +18717,7 @@
       <c r="E35" s="86"/>
       <c r="F35" s="104"/>
     </row>
-    <row r="36" spans="2:6" ht="19.5" thickBot="1">
+    <row r="36" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B36" s="87"/>
       <c r="C36" s="69"/>
       <c r="D36" s="81"/>
@@ -19154,9 +18725,8 @@
       <c r="F36" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B4:D5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:B36">
@@ -19219,46 +18789,46 @@
   <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="47.875" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="47.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="19.5" thickBot="1">
+    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:8" ht="18" customHeight="1">
-      <c r="B4" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
+      <c r="B4" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="90"/>
-      <c r="H4" s="130"/>
-    </row>
-    <row r="5" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B5" s="127"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
+      <c r="H4" s="135"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="90"/>
-      <c r="H5" s="131"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="38"/>
@@ -19269,7 +18839,7 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="2:8" ht="19.5" thickBot="1">
+    <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -19278,24 +18848,24 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="2:8" ht="28.15" customHeight="1" thickBot="1">
+    <row r="8" spans="2:8" ht="28.2" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="121" t="s">
-        <v>101</v>
-      </c>
       <c r="G8" s="113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="119" t="s">
         <v>19</v>
@@ -19306,22 +18876,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="89" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="89" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -19329,22 +18899,22 @@
         <v>2</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="107" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -19352,22 +18922,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="107" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -19375,22 +18945,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="107" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -19398,22 +18968,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -19421,22 +18991,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -19444,22 +19014,22 @@
         <v>2</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -19467,22 +19037,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -19490,22 +19060,22 @@
         <v>2</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -19513,22 +19083,22 @@
         <v>2</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -19536,22 +19106,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -19559,22 +19129,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -19582,22 +19152,22 @@
         <v>2</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -19605,22 +19175,22 @@
         <v>2</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -19628,22 +19198,22 @@
         <v>2</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -19651,22 +19221,22 @@
         <v>2</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -19674,22 +19244,22 @@
         <v>2</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -19697,22 +19267,22 @@
         <v>2</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -19720,22 +19290,22 @@
         <v>2</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D27" s="72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -19743,22 +19313,22 @@
         <v>2</v>
       </c>
       <c r="C28" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="72" t="s">
         <v>197</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>198</v>
       </c>
       <c r="E28" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H28" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -19766,22 +19336,22 @@
         <v>2</v>
       </c>
       <c r="C29" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="72" t="s">
         <v>199</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>200</v>
       </c>
       <c r="E29" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -19789,22 +19359,22 @@
         <v>2</v>
       </c>
       <c r="C30" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="72" t="s">
         <v>139</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>140</v>
       </c>
       <c r="E30" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -19812,22 +19382,22 @@
         <v>2</v>
       </c>
       <c r="C31" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="72" t="s">
         <v>142</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>143</v>
       </c>
       <c r="E31" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -19835,22 +19405,22 @@
         <v>2</v>
       </c>
       <c r="C32" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="72" t="s">
         <v>145</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>146</v>
       </c>
       <c r="E32" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -19916,7 +19486,7 @@
       <c r="G39" s="86"/>
       <c r="H39" s="104"/>
     </row>
-    <row r="40" spans="2:8" ht="19.5" thickBot="1">
+    <row r="40" spans="2:8" ht="18.600000000000001" thickBot="1">
       <c r="B40" s="64"/>
       <c r="C40" s="69"/>
       <c r="D40" s="83"/>
@@ -19926,9 +19496,8 @@
       <c r="H40" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="H4:H5"/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B32 B9:B28">
@@ -20002,54 +19571,54 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:5" ht="19.5" thickBot="1">
+    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:5" ht="18" customHeight="1">
-      <c r="B4" s="124" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="126"/>
+      <c r="B4" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="140"/>
       <c r="D4" s="90"/>
-      <c r="E4" s="130"/>
-    </row>
-    <row r="5" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B5" s="127"/>
-      <c r="C5" s="129"/>
+      <c r="E4" s="135"/>
+    </row>
+    <row r="5" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="90"/>
-      <c r="E5" s="131"/>
-    </row>
-    <row r="6" spans="2:5" ht="19.5" thickBot="1">
+      <c r="E5" s="124"/>
+    </row>
+    <row r="6" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="2:5" ht="25.9" customHeight="1" thickBot="1">
+    <row r="7" spans="2:5" ht="25.8" customHeight="1" thickBot="1">
       <c r="B7" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="116" t="s">
         <v>19</v>
@@ -20060,7 +19629,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>4</v>
@@ -20072,7 +19641,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>8</v>
@@ -20084,7 +19653,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="86" t="s">
         <v>8</v>
@@ -20096,7 +19665,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="86" t="s">
         <v>8</v>
@@ -20108,7 +19677,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D12" s="86" t="s">
         <v>5</v>
@@ -20120,7 +19689,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="86" t="s">
         <v>5</v>
@@ -20132,7 +19701,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="86" t="s">
         <v>5</v>
@@ -20144,7 +19713,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="123" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="86" t="s">
         <v>4</v>
@@ -20156,7 +19725,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" s="86" t="s">
         <v>4</v>
@@ -20168,7 +19737,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" s="86" t="s">
         <v>3</v>
@@ -20180,7 +19749,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="123" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18" s="86" t="s">
         <v>4</v>
@@ -20192,7 +19761,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="86" t="s">
         <v>4</v>
@@ -20204,7 +19773,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="86" t="s">
         <v>4</v>
@@ -20216,7 +19785,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="123" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="86" t="s">
         <v>8</v>
@@ -20228,7 +19797,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" s="86" t="s">
         <v>8</v>
@@ -20253,16 +19822,15 @@
       <c r="D25" s="86"/>
       <c r="E25" s="104"/>
     </row>
-    <row r="26" spans="2:5" ht="19.5" thickBot="1">
+    <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B26" s="58"/>
       <c r="C26" s="80"/>
       <c r="D26" s="87"/>
       <c r="E26" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B4:C5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B8:B12 B15:B22">
@@ -20378,30 +19946,30 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="19.5" thickBot="1"/>
-    <row r="5" spans="2:17" ht="43.9" customHeight="1" thickBot="1">
+    <row r="4" spans="2:17" ht="18.600000000000001" thickBot="1"/>
+    <row r="5" spans="2:17" ht="43.8" customHeight="1" thickBot="1">
       <c r="B5" s="101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="102" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="19.5" thickBot="1"/>
-    <row r="11" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="2:17" ht="18.600000000000001" thickBot="1"/>
+    <row r="11" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -20419,7 +19987,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
     </row>
-    <row r="12" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -20437,7 +20005,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -20447,7 +20015,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1">
+    <row r="14" spans="2:17" ht="79.95" customHeight="1" thickTop="1">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -20457,7 +20025,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
     </row>
-    <row r="15" spans="2:17" ht="79.900000000000006" customHeight="1">
+    <row r="15" spans="2:17" ht="79.95" customHeight="1">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game127\Desktop\ゲーム素材\3年次\卒業制作\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game121\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -3086,21 +3086,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3117,6 +3102,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15051,13 +15051,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.600000000000001" thickBot="1"/>
+    <row r="1" spans="2:2" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:2" ht="30" customHeight="1" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>10</v>
@@ -15128,7 +15128,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
@@ -15198,28 +15198,28 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="11" width="15.69921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" style="2" customWidth="1"/>
-    <col min="13" max="47" width="15.69921875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="15.69921875" style="3" customWidth="1"/>
-    <col min="49" max="68" width="15.69921875" style="1" customWidth="1"/>
-    <col min="69" max="69" width="15.69921875" style="4" customWidth="1"/>
-    <col min="70" max="102" width="15.69921875" style="1" customWidth="1"/>
-    <col min="103" max="103" width="15.69921875" style="15" customWidth="1"/>
-    <col min="104" max="104" width="15.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="11" width="15.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="2" customWidth="1"/>
+    <col min="13" max="47" width="15.75" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15.75" style="3" customWidth="1"/>
+    <col min="49" max="68" width="15.75" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.75" style="4" customWidth="1"/>
+    <col min="70" max="102" width="15.75" style="1" customWidth="1"/>
+    <col min="103" max="103" width="15.75" style="15" customWidth="1"/>
+    <col min="104" max="104" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:104" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:104" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:104" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:104" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:104" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:104" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:104">
       <c r="B4" s="16"/>
       <c r="C4" s="24">
@@ -15529,7 +15529,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="5" spans="2:104" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="2:104" ht="19.5" thickBot="1">
       <c r="B5" s="17"/>
       <c r="C5" s="25" t="str">
         <f t="shared" ref="C5:BN5" si="0">TEXT(C4,"(aaa)")</f>
@@ -16734,27 +16734,27 @@
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
-    <col min="3" max="3" width="26.296875" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
-    <col min="6" max="6" width="35.19921875" customWidth="1"/>
-    <col min="9" max="12" width="15.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="35.25" customWidth="1"/>
+    <col min="9" max="12" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:12" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:12" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:12" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:12" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
         <v>32</v>
@@ -16770,7 +16770,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="2:12" ht="19.5" thickBot="1">
       <c r="B5" s="141"/>
       <c r="C5" s="142"/>
       <c r="D5" s="143"/>
@@ -16796,7 +16796,7 @@
       <c r="K6" s="46"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="2:12" ht="19.5" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -16809,7 +16809,7 @@
       <c r="K7" s="46"/>
       <c r="L7" s="47"/>
     </row>
-    <row r="8" spans="2:12" ht="28.2" customHeight="1" thickBot="1">
+    <row r="8" spans="2:12" ht="28.15" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
         <v>148</v>
       </c>
@@ -16834,7 +16834,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="100" t="s">
         <v>214</v>
@@ -16878,9 +16878,9 @@
       <c r="K10" s="46"/>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="11" spans="2:12" ht="19.5" thickBot="1">
       <c r="B11" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>216</v>
@@ -16926,7 +16926,7 @@
       <c r="K12" s="145"/>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="13" spans="2:12" ht="19.5" thickBot="1">
       <c r="B13" s="86" t="s">
         <v>0</v>
       </c>
@@ -16974,7 +16974,7 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>226</v>
@@ -17019,7 +17019,7 @@
       <c r="K17" s="46"/>
       <c r="L17" s="47"/>
     </row>
-    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="18" spans="2:12" ht="19.5" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="73"/>
@@ -17084,7 +17084,7 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="23" spans="2:12" ht="19.5" thickBot="1">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -17112,7 +17112,7 @@
       <c r="K24" s="145"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
+    <row r="25" spans="2:12" ht="19.5" thickBot="1">
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -17202,43 +17202,43 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="20.296875" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="36.8984375" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:7" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:7" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="4" spans="2:7" ht="28.2">
+    <row r="3" spans="2:7" ht="19.5" thickBot="1"/>
+    <row r="4" spans="2:7" ht="28.5">
       <c r="B4" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="155"/>
       <c r="F4" s="88"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="2:7" ht="28.8" thickBot="1">
-      <c r="B5" s="150"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152"/>
+    <row r="5" spans="2:7" ht="29.25" thickBot="1">
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="158"/>
       <c r="F5" s="88"/>
       <c r="G5" s="124"/>
     </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" thickBot="1">
+    <row r="6" spans="2:7" ht="19.5" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="50"/>
       <c r="D6" s="38"/>
@@ -17247,26 +17247,26 @@
       <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="157" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="152" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="85"/>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="158"/>
+    <row r="8" spans="2:7" ht="19.5" thickBot="1">
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="85"/>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="2:7" ht="31.05" customHeight="1" thickBot="1">
+    <row r="9" spans="2:7" ht="31.15" customHeight="1" thickBot="1">
       <c r="B9" s="113" t="s">
         <v>148</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1">
+    <row r="17" spans="2:7" ht="19.5" thickBot="1">
       <c r="B17" s="87" t="s">
         <v>2</v>
       </c>
@@ -17446,7 +17446,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
     </row>
-    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1">
+    <row r="19" spans="2:7" ht="19.5" thickBot="1">
       <c r="B19" s="38"/>
       <c r="C19" s="50"/>
       <c r="D19" s="38"/>
@@ -17455,26 +17455,26 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="157" t="s">
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="152" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="85"/>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="158"/>
+    <row r="21" spans="2:7" ht="19.5" thickBot="1">
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="153"/>
       <c r="F21" s="85"/>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="2:7" ht="31.05" customHeight="1" thickBot="1">
+    <row r="22" spans="2:7" ht="31.15" customHeight="1" thickBot="1">
       <c r="B22" s="117" t="s">
         <v>148</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="18.600000000000001" thickBot="1">
+    <row r="30" spans="2:7" ht="19.5" thickBot="1">
       <c r="B30" s="87" t="s">
         <v>2</v>
       </c>
@@ -17654,7 +17654,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="2:7" ht="18.600000000000001" thickBot="1">
+    <row r="32" spans="2:7" ht="19.5" thickBot="1">
       <c r="B32" s="38"/>
       <c r="C32" s="50"/>
       <c r="D32" s="38"/>
@@ -17663,26 +17663,26 @@
       <c r="G32" s="38"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="153" t="s">
+      <c r="B33" s="148" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="157" t="s">
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="152" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="85"/>
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="155"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="158"/>
+    <row r="34" spans="2:7" ht="19.5" thickBot="1">
+      <c r="B34" s="150"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="153"/>
       <c r="F34" s="85"/>
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="2:7" ht="31.05" customHeight="1" thickBot="1">
+    <row r="35" spans="2:7" ht="31.15" customHeight="1" thickBot="1">
       <c r="B35" s="113" t="s">
         <v>148</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="18.600000000000001" thickBot="1">
+    <row r="43" spans="2:7" ht="19.5" thickBot="1">
       <c r="B43" s="87" t="s">
         <v>2</v>
       </c>
@@ -17980,22 +17980,22 @@
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" customWidth="1"/>
-    <col min="6" max="6" width="26.09765625" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:6" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:6" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" customHeight="1">
       <c r="B4" s="159" t="s">
         <v>62</v>
@@ -18005,7 +18005,7 @@
       <c r="E4" s="90"/>
       <c r="F4" s="135"/>
     </row>
-    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="2:6" ht="19.5" thickBot="1">
       <c r="B5" s="141"/>
       <c r="C5" s="142"/>
       <c r="D5" s="143"/>
@@ -18019,14 +18019,14 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="2:6" ht="19.5" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="2:6" ht="28.8" customHeight="1" thickBot="1">
+    <row r="8" spans="2:6" ht="28.9" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
         <v>148</v>
       </c>
@@ -18189,7 +18189,7 @@
       <c r="E20" s="86"/>
       <c r="F20" s="104"/>
     </row>
-    <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="21" spans="2:6" ht="19.5" thickBot="1">
       <c r="B21" s="58"/>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
@@ -18264,23 +18264,23 @@
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="22.8984375" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:6" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:6" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
         <v>74</v>
@@ -18290,7 +18290,7 @@
       <c r="E4" s="90"/>
       <c r="F4" s="135"/>
     </row>
-    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="2:6" ht="19.5" thickBot="1">
       <c r="B5" s="141"/>
       <c r="C5" s="142"/>
       <c r="D5" s="143"/>
@@ -18304,14 +18304,14 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="2:6" ht="19.5" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="2:6" ht="29.4" customHeight="1" thickBot="1">
+    <row r="8" spans="2:6" ht="29.45" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
         <v>148</v>
       </c>
@@ -18717,7 +18717,7 @@
       <c r="E35" s="86"/>
       <c r="F35" s="104"/>
     </row>
-    <row r="36" spans="2:6" ht="18.600000000000001" thickBot="1">
+    <row r="36" spans="2:6" ht="19.5" thickBot="1">
       <c r="B36" s="87"/>
       <c r="C36" s="69"/>
       <c r="D36" s="81"/>
@@ -18792,39 +18792,39 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
-    <col min="8" max="8" width="47.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:8" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:8" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="137"/>
       <c r="F4" s="124"/>
       <c r="G4" s="90"/>
       <c r="H4" s="135"/>
     </row>
-    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="150"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="137"/>
       <c r="F5" s="124"/>
       <c r="G5" s="90"/>
@@ -18839,7 +18839,7 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="2:8" ht="19.5" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -18848,7 +18848,7 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="2:8" ht="28.2" customHeight="1" thickBot="1">
+    <row r="8" spans="2:8" ht="28.15" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
         <v>148</v>
       </c>
@@ -19486,7 +19486,7 @@
       <c r="G39" s="86"/>
       <c r="H39" s="104"/>
     </row>
-    <row r="40" spans="2:8" ht="18.600000000000001" thickBot="1">
+    <row r="40" spans="2:8" ht="19.5" thickBot="1">
       <c r="B40" s="64"/>
       <c r="C40" s="69"/>
       <c r="D40" s="83"/>
@@ -19574,22 +19574,22 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:5" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:5" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1"/>
+    <row r="3" spans="2:5" ht="19.5" thickBot="1"/>
     <row r="4" spans="2:5" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
         <v>212</v>
@@ -19598,19 +19598,19 @@
       <c r="D4" s="90"/>
       <c r="E4" s="135"/>
     </row>
-    <row r="5" spans="2:5" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="2:5" ht="19.5" thickBot="1">
       <c r="B5" s="141"/>
       <c r="C5" s="143"/>
       <c r="D5" s="90"/>
       <c r="E5" s="124"/>
     </row>
-    <row r="6" spans="2:5" ht="18.600000000000001" thickBot="1">
+    <row r="6" spans="2:5" ht="19.5" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="2:5" ht="25.8" customHeight="1" thickBot="1">
+    <row r="7" spans="2:5" ht="25.9" customHeight="1" thickBot="1">
       <c r="B7" s="112" t="s">
         <v>148</v>
       </c>
@@ -19822,7 +19822,7 @@
       <c r="D25" s="86"/>
       <c r="E25" s="104"/>
     </row>
-    <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1">
+    <row r="26" spans="2:5" ht="19.5" thickBot="1">
       <c r="B26" s="58"/>
       <c r="C26" s="80"/>
       <c r="D26" s="87"/>
@@ -19946,21 +19946,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:17" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="18.600000000000001" thickBot="1"/>
-    <row r="5" spans="2:17" ht="43.8" customHeight="1" thickBot="1">
+    <row r="4" spans="2:17" ht="19.5" thickBot="1"/>
+    <row r="5" spans="2:17" ht="43.9" customHeight="1" thickBot="1">
       <c r="B5" s="101" t="s">
         <v>204</v>
       </c>
@@ -19968,8 +19968,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="18.600000000000001" thickBot="1"/>
-    <row r="11" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="2:17" ht="19.5" thickBot="1"/>
+    <row r="11" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -19987,7 +19987,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
     </row>
-    <row r="12" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -20005,7 +20005,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -20015,7 +20015,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="2:17" ht="79.95" customHeight="1" thickTop="1">
+    <row r="14" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -20025,7 +20025,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
     </row>
-    <row r="15" spans="2:17" ht="79.95" customHeight="1">
+    <row r="15" spans="2:17" ht="79.900000000000006" customHeight="1">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game121\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game127\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -15051,13 +15051,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="19.5" thickBot="1"/>
+    <row r="1" spans="2:2" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:2" ht="30" customHeight="1" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>10</v>
@@ -15128,7 +15128,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
@@ -15191,35 +15191,35 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:CZ12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="11" width="15.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="2" customWidth="1"/>
-    <col min="13" max="47" width="15.75" style="1" customWidth="1"/>
-    <col min="48" max="48" width="15.75" style="3" customWidth="1"/>
-    <col min="49" max="68" width="15.75" style="1" customWidth="1"/>
-    <col min="69" max="69" width="15.75" style="4" customWidth="1"/>
-    <col min="70" max="102" width="15.75" style="1" customWidth="1"/>
-    <col min="103" max="103" width="15.75" style="15" customWidth="1"/>
-    <col min="104" max="104" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="11" width="15.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" style="2" customWidth="1"/>
+    <col min="13" max="47" width="15.69921875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15.69921875" style="3" customWidth="1"/>
+    <col min="49" max="68" width="15.69921875" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.69921875" style="4" customWidth="1"/>
+    <col min="70" max="102" width="15.69921875" style="1" customWidth="1"/>
+    <col min="103" max="103" width="15.69921875" style="15" customWidth="1"/>
+    <col min="104" max="104" width="15.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:104" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:104" ht="19.5" thickBot="1">
+    <row r="1" spans="2:104" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:104" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:104" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:104" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:104">
       <c r="B4" s="16"/>
       <c r="C4" s="24">
@@ -15529,7 +15529,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="5" spans="2:104" ht="19.5" thickBot="1">
+    <row r="5" spans="2:104" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="17"/>
       <c r="C5" s="25" t="str">
         <f t="shared" ref="C5:BN5" si="0">TEXT(C4,"(aaa)")</f>
@@ -16733,28 +16733,28 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="35.25" customWidth="1"/>
-    <col min="9" max="12" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="35.19921875" customWidth="1"/>
+    <col min="9" max="12" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:12" ht="19.5" thickBot="1">
+    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:12" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
         <v>32</v>
@@ -16770,7 +16770,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" thickBot="1">
+    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="141"/>
       <c r="C5" s="142"/>
       <c r="D5" s="143"/>
@@ -16796,7 +16796,7 @@
       <c r="K6" s="46"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" thickBot="1">
+    <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -16809,7 +16809,7 @@
       <c r="K7" s="46"/>
       <c r="L7" s="47"/>
     </row>
-    <row r="8" spans="2:12" ht="28.15" customHeight="1" thickBot="1">
+    <row r="8" spans="2:12" ht="28.2" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
         <v>148</v>
       </c>
@@ -16878,7 +16878,7 @@
       <c r="K10" s="46"/>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="2:12" ht="19.5" thickBot="1">
+    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B11" s="86" t="s">
         <v>0</v>
       </c>
@@ -16926,7 +16926,7 @@
       <c r="K12" s="145"/>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="2:12" ht="19.5" thickBot="1">
+    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="86" t="s">
         <v>0</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="K17" s="46"/>
       <c r="L17" s="47"/>
     </row>
-    <row r="18" spans="2:12" ht="19.5" thickBot="1">
+    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="73"/>
@@ -17084,7 +17084,7 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="2:12" ht="19.5" thickBot="1">
+    <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -17112,7 +17112,7 @@
       <c r="K24" s="145"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="2:12" ht="19.5" thickBot="1">
+    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -17198,29 +17198,29 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="36.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:7" ht="19.5" thickBot="1">
+    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="19.5" thickBot="1"/>
-    <row r="4" spans="2:7" ht="28.5">
+    <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="2:7" ht="28.2">
       <c r="B4" s="138" t="s">
         <v>34</v>
       </c>
@@ -17230,7 +17230,7 @@
       <c r="F4" s="88"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="2:7" ht="29.25" thickBot="1">
+    <row r="5" spans="2:7" ht="28.8" thickBot="1">
       <c r="B5" s="156"/>
       <c r="C5" s="157"/>
       <c r="D5" s="157"/>
@@ -17238,7 +17238,7 @@
       <c r="F5" s="88"/>
       <c r="G5" s="124"/>
     </row>
-    <row r="6" spans="2:7" ht="19.5" thickBot="1">
+    <row r="6" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="50"/>
       <c r="D6" s="38"/>
@@ -17258,7 +17258,7 @@
       <c r="F7" s="85"/>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="2:7" ht="19.5" thickBot="1">
+    <row r="8" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B8" s="150"/>
       <c r="C8" s="151"/>
       <c r="D8" s="151"/>
@@ -17266,7 +17266,7 @@
       <c r="F8" s="85"/>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="2:7" ht="31.15" customHeight="1" thickBot="1">
+    <row r="9" spans="2:7" ht="31.2" customHeight="1" thickBot="1">
       <c r="B9" s="113" t="s">
         <v>148</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="19.5" thickBot="1">
+    <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B17" s="87" t="s">
         <v>2</v>
       </c>
@@ -17446,7 +17446,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
     </row>
-    <row r="19" spans="2:7" ht="19.5" thickBot="1">
+    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B19" s="38"/>
       <c r="C19" s="50"/>
       <c r="D19" s="38"/>
@@ -17466,7 +17466,7 @@
       <c r="F20" s="85"/>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="2:7" ht="19.5" thickBot="1">
+    <row r="21" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B21" s="150"/>
       <c r="C21" s="151"/>
       <c r="D21" s="151"/>
@@ -17474,7 +17474,7 @@
       <c r="F21" s="85"/>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="2:7" ht="31.15" customHeight="1" thickBot="1">
+    <row r="22" spans="2:7" ht="31.2" customHeight="1" thickBot="1">
       <c r="B22" s="117" t="s">
         <v>148</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="19.5" thickBot="1">
+    <row r="30" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B30" s="87" t="s">
         <v>2</v>
       </c>
@@ -17654,7 +17654,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="2:7" ht="19.5" thickBot="1">
+    <row r="32" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B32" s="38"/>
       <c r="C32" s="50"/>
       <c r="D32" s="38"/>
@@ -17674,7 +17674,7 @@
       <c r="F33" s="85"/>
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="2:7" ht="19.5" thickBot="1">
+    <row r="34" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B34" s="150"/>
       <c r="C34" s="151"/>
       <c r="D34" s="151"/>
@@ -17682,7 +17682,7 @@
       <c r="F34" s="85"/>
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="2:7" ht="31.15" customHeight="1" thickBot="1">
+    <row r="35" spans="2:7" ht="31.2" customHeight="1" thickBot="1">
       <c r="B35" s="113" t="s">
         <v>148</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="19.5" thickBot="1">
+    <row r="43" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B43" s="87" t="s">
         <v>2</v>
       </c>
@@ -17980,22 +17980,22 @@
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:6" ht="19.5" thickBot="1">
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" customHeight="1">
       <c r="B4" s="159" t="s">
         <v>62</v>
@@ -18005,7 +18005,7 @@
       <c r="E4" s="90"/>
       <c r="F4" s="135"/>
     </row>
-    <row r="5" spans="2:6" ht="19.5" thickBot="1">
+    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="141"/>
       <c r="C5" s="142"/>
       <c r="D5" s="143"/>
@@ -18019,14 +18019,14 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="19.5" thickBot="1">
+    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="2:6" ht="28.9" customHeight="1" thickBot="1">
+    <row r="8" spans="2:6" ht="28.95" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
         <v>148</v>
       </c>
@@ -18189,7 +18189,7 @@
       <c r="E20" s="86"/>
       <c r="F20" s="104"/>
     </row>
-    <row r="21" spans="2:6" ht="19.5" thickBot="1">
+    <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B21" s="58"/>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
@@ -18264,23 +18264,23 @@
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:6" ht="19.5" thickBot="1">
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
         <v>74</v>
@@ -18290,7 +18290,7 @@
       <c r="E4" s="90"/>
       <c r="F4" s="135"/>
     </row>
-    <row r="5" spans="2:6" ht="19.5" thickBot="1">
+    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="141"/>
       <c r="C5" s="142"/>
       <c r="D5" s="143"/>
@@ -18304,14 +18304,14 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="19.5" thickBot="1">
+    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="2:6" ht="29.45" customHeight="1" thickBot="1">
+    <row r="8" spans="2:6" ht="29.4" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
         <v>148</v>
       </c>
@@ -18717,7 +18717,7 @@
       <c r="E35" s="86"/>
       <c r="F35" s="104"/>
     </row>
-    <row r="36" spans="2:6" ht="19.5" thickBot="1">
+    <row r="36" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B36" s="87"/>
       <c r="C36" s="69"/>
       <c r="D36" s="81"/>
@@ -18788,28 +18788,28 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="47.875" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="47.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="19.5" thickBot="1">
+    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:8" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
         <v>98</v>
@@ -18821,7 +18821,7 @@
       <c r="G4" s="90"/>
       <c r="H4" s="135"/>
     </row>
-    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="156"/>
       <c r="C5" s="157"/>
       <c r="D5" s="157"/>
@@ -18839,7 +18839,7 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="2:8" ht="19.5" thickBot="1">
+    <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -18848,7 +18848,7 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="2:8" ht="28.15" customHeight="1" thickBot="1">
+    <row r="8" spans="2:8" ht="28.2" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
         <v>148</v>
       </c>
@@ -19080,7 +19080,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>191</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>187</v>
@@ -19195,7 +19195,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="68" t="s">
         <v>193</v>
@@ -19486,7 +19486,7 @@
       <c r="G39" s="86"/>
       <c r="H39" s="104"/>
     </row>
-    <row r="40" spans="2:8" ht="19.5" thickBot="1">
+    <row r="40" spans="2:8" ht="18.600000000000001" thickBot="1">
       <c r="B40" s="64"/>
       <c r="C40" s="69"/>
       <c r="D40" s="83"/>
@@ -19574,22 +19574,22 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:5" ht="19.5" thickBot="1">
+    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:5" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
         <v>212</v>
@@ -19598,19 +19598,19 @@
       <c r="D4" s="90"/>
       <c r="E4" s="135"/>
     </row>
-    <row r="5" spans="2:5" ht="19.5" thickBot="1">
+    <row r="5" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="141"/>
       <c r="C5" s="143"/>
       <c r="D5" s="90"/>
       <c r="E5" s="124"/>
     </row>
-    <row r="6" spans="2:5" ht="19.5" thickBot="1">
+    <row r="6" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="2:5" ht="25.9" customHeight="1" thickBot="1">
+    <row r="7" spans="2:5" ht="25.95" customHeight="1" thickBot="1">
       <c r="B7" s="112" t="s">
         <v>148</v>
       </c>
@@ -19822,7 +19822,7 @@
       <c r="D25" s="86"/>
       <c r="E25" s="104"/>
     </row>
-    <row r="26" spans="2:5" ht="19.5" thickBot="1">
+    <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B26" s="58"/>
       <c r="C26" s="80"/>
       <c r="D26" s="87"/>
@@ -19946,21 +19946,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="19.5" thickBot="1"/>
-    <row r="5" spans="2:17" ht="43.9" customHeight="1" thickBot="1">
+    <row r="4" spans="2:17" ht="18.600000000000001" thickBot="1"/>
+    <row r="5" spans="2:17" ht="43.95" customHeight="1" thickBot="1">
       <c r="B5" s="101" t="s">
         <v>204</v>
       </c>
@@ -19968,8 +19968,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="19.5" thickBot="1"/>
-    <row r="11" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="2:17" ht="18.600000000000001" thickBot="1"/>
+    <row r="11" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -19987,7 +19987,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
     </row>
-    <row r="12" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -20005,7 +20005,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="2:17" ht="79.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -20015,7 +20015,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="2:17" ht="79.900000000000006" customHeight="1" thickTop="1">
+    <row r="14" spans="2:17" ht="79.95" customHeight="1" thickTop="1">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -20025,7 +20025,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
     </row>
-    <row r="15" spans="2:17" ht="79.900000000000006" customHeight="1">
+    <row r="15" spans="2:17" ht="79.95" customHeight="1">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game127\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game117\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -15049,7 +15049,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -15191,8 +15193,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:CZ12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -19570,8 +19572,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -19626,7 +19628,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="89" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="122" t="s">
         <v>222</v>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game117\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game119\Desktop\TeamC-Graduate-work\11_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -15194,7 +15194,7 @@
   <dimension ref="B1:CZ12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -18262,8 +18262,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18332,7 +18332,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="89" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>152</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>153</v>
@@ -18362,7 +18362,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>154</v>
@@ -18377,7 +18377,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>155</v>
@@ -18392,7 +18392,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>156</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>157</v>
@@ -18422,7 +18422,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>158</v>
@@ -18437,7 +18437,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="68" t="s">
         <v>159</v>
@@ -18482,7 +18482,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>162</v>
@@ -18512,7 +18512,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>163</v>
@@ -18542,7 +18542,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="68" t="s">
         <v>167</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="68" t="s">
         <v>173</v>
@@ -18662,7 +18662,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>174</v>
@@ -18677,7 +18677,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>175</v>
@@ -18692,7 +18692,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" s="68" t="s">
         <v>177</v>
@@ -19572,8 +19572,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -19945,7 +19945,7 @@
   <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -15049,7 +15049,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -15194,7 +15194,7 @@
   <dimension ref="B1:CZ12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -17978,8 +17978,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="89" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="74" t="s">
         <v>205</v>
@@ -18092,7 +18092,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>208</v>
@@ -18107,7 +18107,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="76" t="s">
         <v>209</v>
@@ -18124,7 +18124,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="76" t="s">
         <v>210</v>
@@ -18262,7 +18262,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:B33"/>
     </sheetView>
   </sheetViews>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game119\Desktop\TeamC-Graduate-work\11_仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game117\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -15049,7 +15049,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -19572,8 +19572,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -19724,7 +19724,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="123" t="s">
         <v>230</v>
@@ -19772,7 +19772,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="123" t="s">
         <v>234</v>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game117\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game119\Desktop\TeamC-Graduate-work\11_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="244">
   <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
@@ -1791,6 +1791,13 @@
   <si>
     <t>ー</t>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -15193,7 +15200,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:CZ12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -17979,7 +17986,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18061,8 +18068,8 @@
       <c r="F9" s="103"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="86" t="s">
-        <v>2</v>
+      <c r="B10" s="89" t="s">
+        <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>206</v>
@@ -18076,8 +18083,8 @@
       <c r="F10" s="104"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="86" t="s">
-        <v>2</v>
+      <c r="B11" s="89" t="s">
+        <v>0</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>207</v>
@@ -18091,7 +18098,7 @@
       <c r="F11" s="104"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="76" t="s">
@@ -18106,7 +18113,7 @@
       <c r="F12" s="104"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="76" t="s">
@@ -18123,7 +18130,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="76" t="s">
@@ -18140,8 +18147,8 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="86" t="s">
-        <v>2</v>
+      <c r="B15" s="89" t="s">
+        <v>0</v>
       </c>
       <c r="C15" s="76" t="s">
         <v>211</v>
@@ -18262,8 +18269,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18452,7 +18459,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>160</v>
@@ -18478,7 +18485,9 @@
       <c r="E18" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="104"/>
+      <c r="F18" s="104" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="86" t="s">
@@ -18497,7 +18506,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>164</v>
@@ -18538,7 +18547,9 @@
       <c r="E22" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="104"/>
+      <c r="F22" s="104" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="86" t="s">
@@ -18557,7 +18568,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="68" t="s">
         <v>166</v>
@@ -18572,7 +18583,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="68" t="s">
         <v>169</v>
@@ -18587,7 +18598,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="68" t="s">
         <v>168</v>
@@ -18602,7 +18613,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="68" t="s">
         <v>170</v>
@@ -18617,7 +18628,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>171</v>
@@ -18632,7 +18643,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="68" t="s">
         <v>172</v>
@@ -19572,7 +19583,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/11_仕様書/領地奪取ガントチャート.xlsx
+++ b/11_仕様書/領地奪取ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game119\Desktop\TeamC-Graduate-work\11_仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game127\Documents\GitHub\TeamC-Graduate-work\11_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="211">
   <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
@@ -845,52 +845,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトルセレクト2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tutorial(選択時、時間経過でカラー変更)</t>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルセレクト3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Option(選択時、時間経過でカラー変更)</t>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>国旗選択</t>
     <rPh sb="0" eb="2">
       <t>コッキ</t>
@@ -954,36 +908,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャラ性能説明</t>
-    <rPh sb="3" eb="5">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>性能説明テキスト</t>
-    <rPh sb="0" eb="2">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラ選択確認</t>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム開始時カウントダウン</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
@@ -1025,23 +949,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ミニマップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面中央に配置(.jpg)</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ミニマップ上のキャラ位置</t>
     <rPh sb="5" eb="6">
       <t>ジョウ</t>
@@ -1107,95 +1014,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポーズ背景</t>
-    <rPh sb="3" eb="5">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いつもの(背景デザイン未定)</t>
-    <rPh sb="5" eb="7">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択時、カラー変更</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Option000~001.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決定、キャンセル</t>
-    <rPh sb="0" eb="2">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はい、いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Option002.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルに戻る</t>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面右下に配置？</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミギシタ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Option002.png</t>
-  </si>
-  <si>
-    <t>オプションモード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各種調整に必要なガイドテキスト</t>
-    <rPh sb="0" eb="2">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -1351,14 +1169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>title_Select002.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title_Select001.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>chara_Select000.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1371,14 +1181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chara_Select001.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chara_Select002.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>START!!</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1391,10 +1193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>minimap_bg000.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>minimap_chara000.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1412,26 +1210,6 @@
   </si>
   <si>
     <t>rank000.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pause_bg000.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pause_select000.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Continue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pause_select001.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1638,20 +1416,6 @@
   </si>
   <si>
     <t>フィールドの処理</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクトの処理</t>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エフェクトの処理</t>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
     </rPh>
@@ -3134,7 +2898,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="43">
     <dxf>
       <font>
         <b/>
@@ -3255,37 +3019,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -15056,9 +14789,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -15104,7 +14835,7 @@
     </row>
     <row r="9" spans="2:2" ht="30" customHeight="1">
       <c r="B9" s="111" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="30" customHeight="1" thickBot="1">
@@ -15185,7 +14916,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="D10" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -15200,7 +14931,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:CZ12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -16701,10 +16432,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4:CZ5">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="(日)">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="(日)">
       <formula>NOT(ISERROR(SEARCH("(日)",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="(土)">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="(土)">
       <formula>NOT(ISERROR(SEARCH("(土)",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16743,7 +16474,7 @@
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -16820,16 +16551,16 @@
     </row>
     <row r="8" spans="2:12" ht="28.2" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D8" s="114" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E8" s="113" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F8" s="119" t="s">
         <v>19</v>
@@ -16846,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>20</v>
@@ -16869,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>22</v>
@@ -16892,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>24</v>
@@ -16915,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="D12" s="71" t="s">
         <v>26</v>
@@ -16940,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D13" s="72" t="s">
         <v>28</v>
@@ -16963,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="D14" s="72" t="s">
         <v>30</v>
@@ -16986,10 +16717,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="E15" s="89" t="s">
         <v>7</v>
@@ -17142,13 +16873,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:B16">
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17207,8 +16938,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -17277,7 +17008,7 @@
     </row>
     <row r="9" spans="2:7" ht="31.2" customHeight="1" thickBot="1">
       <c r="B9" s="113" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C9" s="114" t="s">
         <v>37</v>
@@ -17289,7 +17020,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G9" s="119" t="s">
         <v>19</v>
@@ -17397,7 +17128,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="128" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>41</v>
@@ -17485,7 +17216,7 @@
     </row>
     <row r="22" spans="2:7" ht="31.2" customHeight="1" thickBot="1">
       <c r="B22" s="117" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C22" s="118" t="s">
         <v>37</v>
@@ -17497,7 +17228,7 @@
         <v>39</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G22" s="136" t="s">
         <v>19</v>
@@ -17605,10 +17336,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="128" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="E28" s="130" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="F28" s="86" t="s">
         <v>6</v>
@@ -17673,7 +17404,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="148" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="C33" s="149"/>
       <c r="D33" s="149"/>
@@ -17693,7 +17424,7 @@
     </row>
     <row r="35" spans="2:7" ht="31.2" customHeight="1" thickBot="1">
       <c r="B35" s="113" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C35" s="114" t="s">
         <v>37</v>
@@ -17705,7 +17436,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="113" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G35" s="119" t="s">
         <v>19</v>
@@ -17815,7 +17546,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="128" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="E41" s="130" t="s">
         <v>41</v>
@@ -17877,35 +17608,35 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B10:B17">
-    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B30">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B43">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17985,8 +17716,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18037,7 +17768,7 @@
     </row>
     <row r="8" spans="2:6" ht="28.95" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C8" s="121" t="s">
         <v>63</v>
@@ -18046,7 +17777,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="113" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F8" s="119" t="s">
         <v>19</v>
@@ -18057,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="D9" s="75" t="s">
         <v>65</v>
@@ -18072,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="D10" s="77" t="s">
         <v>66</v>
@@ -18087,7 +17818,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D11" s="78" t="s">
         <v>67</v>
@@ -18102,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D12" s="78" t="s">
         <v>68</v>
@@ -18117,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>68</v>
@@ -18134,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D14" s="78" t="s">
         <v>70</v>
@@ -18151,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D15" s="78" t="s">
         <v>72</v>
@@ -18211,13 +17942,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:B16">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18269,8 +18000,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18322,7 +18053,7 @@
     </row>
     <row r="8" spans="2:6" ht="29.4" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C8" s="113" t="s">
         <v>63</v>
@@ -18331,7 +18062,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="113" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F8" s="119" t="s">
         <v>19</v>
@@ -18342,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D9" s="91" t="s">
         <v>76</v>
@@ -18357,7 +18088,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>77</v>
@@ -18372,7 +18103,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D11" s="93" t="s">
         <v>78</v>
@@ -18387,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>79</v>
@@ -18402,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D13" s="93" t="s">
         <v>80</v>
@@ -18417,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D14" s="93" t="s">
         <v>81</v>
@@ -18432,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D15" s="93" t="s">
         <v>82</v>
@@ -18447,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D16" s="93" t="s">
         <v>83</v>
@@ -18462,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D17" s="78" t="s">
         <v>84</v>
@@ -18477,7 +18208,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D18" s="78" t="s">
         <v>85</v>
@@ -18486,7 +18217,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -18494,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D19" s="78" t="s">
         <v>86</v>
@@ -18509,7 +18240,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D20" s="78" t="s">
         <v>87</v>
@@ -18524,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D21" s="94" t="s">
         <v>88</v>
@@ -18539,7 +18270,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D22" s="95" t="s">
         <v>46</v>
@@ -18548,7 +18279,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="104" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -18556,7 +18287,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D23" s="78" t="s">
         <v>89</v>
@@ -18571,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D24" s="78" t="s">
         <v>90</v>
@@ -18586,7 +18317,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D25" s="78" t="s">
         <v>91</v>
@@ -18601,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D26" s="78" t="s">
         <v>92</v>
@@ -18616,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D27" s="78" t="s">
         <v>93</v>
@@ -18631,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D28" s="78" t="s">
         <v>94</v>
@@ -18646,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D29" s="78" t="s">
         <v>95</v>
@@ -18661,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D30" s="94" t="s">
         <v>96</v>
@@ -18676,10 +18407,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D31" s="94" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>9</v>
@@ -18691,10 +18422,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>9</v>
@@ -18706,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D33" s="94" t="s">
         <v>97</v>
@@ -18743,13 +18474,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:B36">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18799,10 +18530,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B1:H40"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18863,10 +18594,10 @@
     </row>
     <row r="8" spans="2:8" ht="28.2" customHeight="1" thickBot="1">
       <c r="B8" s="113" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D8" s="114" t="s">
         <v>75</v>
@@ -18878,7 +18609,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="113" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H8" s="119" t="s">
         <v>19</v>
@@ -18886,10 +18617,10 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>101</v>
@@ -18901,7 +18632,7 @@
         <v>102</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H9" s="103" t="s">
         <v>103</v>
@@ -18912,7 +18643,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>104</v>
@@ -18932,56 +18663,56 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="107" t="s">
-        <v>54</v>
+      <c r="E11" s="108" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G11" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="104" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="107" t="s">
-        <v>41</v>
+      <c r="E12" s="108" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G12" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="104" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D13" s="72" t="s">
         <v>111</v>
@@ -18990,10 +18721,10 @@
         <v>41</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G13" s="86" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="104" t="s">
         <v>112</v>
@@ -19001,48 +18732,48 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D14" s="72" t="s">
         <v>113</v>
       </c>
       <c r="E14" s="108" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G14" s="86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" s="104" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D15" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="104" t="s">
         <v>115</v>
-      </c>
-      <c r="E15" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="104" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -19050,10 +18781,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="108" t="s">
         <v>41</v>
@@ -19065,30 +18796,30 @@
         <v>3</v>
       </c>
       <c r="H16" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="108" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G17" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -19096,7 +18827,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D18" s="72" t="s">
         <v>120</v>
@@ -19105,27 +18836,27 @@
         <v>41</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G18" s="86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H18" s="104" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="86" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E19" s="108" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F19" s="65" t="s">
         <v>102</v>
@@ -19134,7 +18865,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -19142,397 +18873,133 @@
         <v>2</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="108" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G20" s="86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H20" s="104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D21" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="104" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="104" t="s">
-        <v>128</v>
-      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="104"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="104" t="s">
-        <v>192</v>
-      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="104"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="E24" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="104" t="s">
-        <v>130</v>
-      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="104"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="104" t="s">
-        <v>132</v>
-      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="104" t="s">
-        <v>134</v>
-      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="104" t="s">
-        <v>136</v>
-      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="104"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="59"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="104"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="60"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="104"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="61"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="104"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="60"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="104"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="61"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="104"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="62"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="104"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="63"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="104"/>
-    </row>
-    <row r="40" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B40" s="64"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="105"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="104"/>
+    </row>
+    <row r="29" spans="2:8" ht="18.600000000000001" thickBot="1">
+      <c r="B29" s="64"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B30:B32 B9:B28">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="完了">
+  <conditionalFormatting sqref="B9:B21">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="待機">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="待機">
       <formula>NOT(ISERROR(SEARCH("待機",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="途中">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="途中">
       <formula>NOT(ISERROR(SEARCH("途中",B9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="待機">
-      <formula>NOT(ISERROR(SEARCH("待機",B29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="途中">
-      <formula>NOT(ISERROR(SEARCH("途中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -19554,7 +19021,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G9:G40</xm:sqref>
+          <xm:sqref>G9:G29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -19562,15 +19029,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Data!$D$3:$D$9</xm:f>
+            <xm:f>Data!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G40</xm:sqref>
+          <xm:sqref>B9:B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Data!$B$3:$B$5</xm:f>
+            <xm:f>Data!$D$3:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B9:B32</xm:sqref>
+          <xm:sqref>G9:G29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19581,10 +19048,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -19605,7 +19072,7 @@
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:5" ht="18" customHeight="1">
       <c r="B4" s="138" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C4" s="140"/>
       <c r="D4" s="90"/>
@@ -19625,13 +19092,13 @@
     </row>
     <row r="7" spans="2:5" ht="25.95" customHeight="1" thickBot="1">
       <c r="B7" s="112" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="D7" s="112" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E7" s="116" t="s">
         <v>19</v>
@@ -19642,7 +19109,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>4</v>
@@ -19651,10 +19118,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>8</v>
@@ -19663,10 +19130,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="D10" s="86" t="s">
         <v>8</v>
@@ -19678,7 +19145,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D11" s="86" t="s">
         <v>8</v>
@@ -19690,7 +19157,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="D12" s="86" t="s">
         <v>5</v>
@@ -19702,7 +19169,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="D13" s="86" t="s">
         <v>5</v>
@@ -19714,7 +19181,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="D14" s="86" t="s">
         <v>5</v>
@@ -19723,10 +19190,10 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="123" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="D15" s="86" t="s">
         <v>4</v>
@@ -19738,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D16" s="86" t="s">
         <v>4</v>
@@ -19750,7 +19217,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D17" s="86" t="s">
         <v>3</v>
@@ -19759,10 +19226,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="123" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="D18" s="86" t="s">
         <v>4</v>
@@ -19771,13 +19238,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" s="104"/>
     </row>
@@ -19786,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="D20" s="86" t="s">
         <v>4</v>
@@ -19794,59 +19261,35 @@
       <c r="E20" s="104"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="123" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>8</v>
-      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="104"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="123" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>8</v>
-      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="104"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="55"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="86"/>
       <c r="E23" s="104"/>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="54"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="104"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="57"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="104"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1">
-      <c r="B26" s="58"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="105"/>
+    <row r="24" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="B24" s="58"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B8:B12 B15:B22">
+  <conditionalFormatting sqref="B8:B12 B15:B20">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B8)))</formula>
     </cfRule>
@@ -19898,7 +19341,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D8:D12 D15:D26</xm:sqref>
+          <xm:sqref>D8:D12 D15:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="5" operator="containsText" id="{D1A1A58C-B2E1-4D42-B671-A80666B649BF}">
@@ -19936,13 +19379,13 @@
           <x14:formula1>
             <xm:f>Data!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B22</xm:sqref>
+          <xm:sqref>B8:B20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$D$3:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D26</xm:sqref>
+          <xm:sqref>D8:D24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19956,7 +19399,7 @@
   <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -19975,7 +19418,7 @@
     <row r="4" spans="2:17" ht="18.600000000000001" thickBot="1"/>
     <row r="5" spans="2:17" ht="43.95" customHeight="1" thickBot="1">
       <c r="B5" s="101" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C5" s="102" t="s">
         <v>3</v>
